--- a/cafe_data.xlsx
+++ b/cafe_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A46CC5-1A4B-47B9-BA34-21D864AF93AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493E14F3-2B6B-4349-A6FF-F2F7DC95C0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{45C39731-7B74-4D14-9E69-4C84CD8FEDCC}"/>
   </bookViews>
@@ -34,28 +34,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Mes</t>
   </si>
   <si>
     <t>Producción</t>
   </si>
-  <si>
-    <t>Producción registrada - mensual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miles de sacos de 60 Kg de café verde equivalente </t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="ddd\-dd\-mmm\-yy"/>
-  </numFmts>
-  <fonts count="8">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,21 +70,6 @@
     <font>
       <b/>
       <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="12"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -272,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -295,18 +271,6 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="17" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -656,15 +620,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5A22F7-E4DC-4184-8C51-23731E3AC257}">
-  <dimension ref="A1:O254"/>
+  <dimension ref="A1:J254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="17.25" customHeight="1" thickBot="1">
+    <row r="1" spans="1:10" ht="17.25" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -679,13 +643,8 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-    </row>
-    <row r="2" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="2" spans="1:10" ht="12.75" customHeight="1">
       <c r="A2" s="5">
         <v>36161</v>
       </c>
@@ -700,13 +659,8 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-    </row>
-    <row r="3" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="3" spans="1:10" ht="12.75" customHeight="1">
       <c r="A3" s="5">
         <v>36192</v>
       </c>
@@ -721,13 +675,8 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-    </row>
-    <row r="4" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="4" spans="1:10" ht="12.75" customHeight="1">
       <c r="A4" s="5">
         <v>36220</v>
       </c>
@@ -742,13 +691,8 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-    </row>
-    <row r="5" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="5">
         <v>36251</v>
       </c>
@@ -763,13 +707,8 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-    </row>
-    <row r="6" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="6" spans="1:10" ht="12.75" customHeight="1">
       <c r="A6" s="5">
         <v>36281</v>
       </c>
@@ -779,20 +718,13 @@
       <c r="C6" s="9"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="12"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-    </row>
-    <row r="7" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="7" spans="1:10" ht="12.75" customHeight="1">
       <c r="A7" s="5">
         <v>36312</v>
       </c>
@@ -802,20 +734,13 @@
       <c r="C7" s="9"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-    </row>
-    <row r="8" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="8" spans="1:10" ht="12.75" customHeight="1">
       <c r="A8" s="5">
         <v>36342</v>
       </c>
@@ -826,17 +751,12 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="15"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-    </row>
-    <row r="9" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="9" spans="1:10" ht="12.75" customHeight="1">
       <c r="A9" s="5">
         <v>36373</v>
       </c>
@@ -851,13 +771,8 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-    </row>
-    <row r="10" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="10" spans="1:10" ht="12.75" customHeight="1">
       <c r="A10" s="5">
         <v>36404</v>
       </c>
@@ -872,13 +787,8 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-    </row>
-    <row r="11" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="11" spans="1:10" ht="12.75" customHeight="1">
       <c r="A11" s="5">
         <v>36434</v>
       </c>
@@ -893,13 +803,8 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-    </row>
-    <row r="12" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="12" spans="1:10" ht="12.75" customHeight="1">
       <c r="A12" s="5">
         <v>36465</v>
       </c>
@@ -914,20 +819,15 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-    </row>
-    <row r="13" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A13" s="16">
+    </row>
+    <row r="13" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A13" s="10">
         <v>36495</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="11">
         <v>890</v>
       </c>
-      <c r="C13" s="18"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -935,13 +835,8 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-    </row>
-    <row r="14" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="14" spans="1:10" ht="12.75" customHeight="1">
       <c r="A14" s="5">
         <v>36526</v>
       </c>
@@ -956,13 +851,8 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-    </row>
-    <row r="15" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="15" spans="1:10" ht="12.75" customHeight="1">
       <c r="A15" s="5">
         <v>36557</v>
       </c>
@@ -977,13 +867,8 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-    </row>
-    <row r="16" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="16" spans="1:10" ht="12.75" customHeight="1">
       <c r="A16" s="5">
         <v>36586</v>
       </c>
@@ -998,13 +883,8 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-    </row>
-    <row r="17" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="17" spans="1:10" ht="12.75" customHeight="1">
       <c r="A17" s="5">
         <v>36617</v>
       </c>
@@ -1019,13 +899,8 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-    </row>
-    <row r="18" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="18" spans="1:10" ht="12.75" customHeight="1">
       <c r="A18" s="5">
         <v>36647</v>
       </c>
@@ -1040,13 +915,8 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-    </row>
-    <row r="19" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="19" spans="1:10" ht="12.75" customHeight="1">
       <c r="A19" s="5">
         <v>36678</v>
       </c>
@@ -1061,13 +931,8 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-    </row>
-    <row r="20" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="20" spans="1:10" ht="12.75" customHeight="1">
       <c r="A20" s="5">
         <v>36708</v>
       </c>
@@ -1082,13 +947,8 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-    </row>
-    <row r="21" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="21" spans="1:10" ht="12.75" customHeight="1">
       <c r="A21" s="5">
         <v>36739</v>
       </c>
@@ -1103,13 +963,8 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-    </row>
-    <row r="22" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="22" spans="1:10" ht="12.75" customHeight="1">
       <c r="A22" s="5">
         <v>36770</v>
       </c>
@@ -1124,13 +979,8 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-    </row>
-    <row r="23" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="23" spans="1:10" ht="12.75" customHeight="1">
       <c r="A23" s="5">
         <v>36800</v>
       </c>
@@ -1145,13 +995,8 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-    </row>
-    <row r="24" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="24" spans="1:10" ht="12.75" customHeight="1">
       <c r="A24" s="5">
         <v>36831</v>
       </c>
@@ -1166,20 +1011,15 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-    </row>
-    <row r="25" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A25" s="16">
+    </row>
+    <row r="25" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A25" s="10">
         <v>36861</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="11">
         <v>1314</v>
       </c>
-      <c r="C25" s="18"/>
+      <c r="C25" s="12"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -1187,13 +1027,8 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-    </row>
-    <row r="26" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="26" spans="1:10" ht="12.75" customHeight="1">
       <c r="A26" s="5">
         <v>36892</v>
       </c>
@@ -1208,13 +1043,8 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-    </row>
-    <row r="27" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="27" spans="1:10" ht="12.75" customHeight="1">
       <c r="A27" s="5">
         <v>36923</v>
       </c>
@@ -1229,13 +1059,8 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-    </row>
-    <row r="28" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="28" spans="1:10" ht="12.75" customHeight="1">
       <c r="A28" s="5">
         <v>36951</v>
       </c>
@@ -1250,13 +1075,8 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-    </row>
-    <row r="29" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="29" spans="1:10" ht="12.75" customHeight="1">
       <c r="A29" s="5">
         <v>36982</v>
       </c>
@@ -1271,13 +1091,8 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-    </row>
-    <row r="30" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="30" spans="1:10" ht="12.75" customHeight="1">
       <c r="A30" s="5">
         <v>37012</v>
       </c>
@@ -1292,13 +1107,8 @@
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-    </row>
-    <row r="31" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="31" spans="1:10" ht="12.75" customHeight="1">
       <c r="A31" s="5">
         <v>37043</v>
       </c>
@@ -1313,13 +1123,8 @@
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-    </row>
-    <row r="32" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="32" spans="1:10" ht="12.75" customHeight="1">
       <c r="A32" s="5">
         <v>37073</v>
       </c>
@@ -1334,13 +1139,8 @@
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-    </row>
-    <row r="33" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="33" spans="1:10" ht="12.75" customHeight="1">
       <c r="A33" s="5">
         <v>37104</v>
       </c>
@@ -1355,13 +1155,8 @@
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-    </row>
-    <row r="34" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="34" spans="1:10" ht="12.75" customHeight="1">
       <c r="A34" s="5">
         <v>37135</v>
       </c>
@@ -1376,13 +1171,8 @@
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-    </row>
-    <row r="35" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="35" spans="1:10" ht="12.75" customHeight="1">
       <c r="A35" s="5">
         <v>37165</v>
       </c>
@@ -1397,13 +1187,8 @@
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-    </row>
-    <row r="36" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="36" spans="1:10" ht="12.75" customHeight="1">
       <c r="A36" s="5">
         <v>37196</v>
       </c>
@@ -1418,20 +1203,15 @@
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-    </row>
-    <row r="37" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A37" s="16">
+    </row>
+    <row r="37" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A37" s="10">
         <v>37226</v>
       </c>
-      <c r="B37" s="17">
+      <c r="B37" s="11">
         <v>1257</v>
       </c>
-      <c r="C37" s="18"/>
+      <c r="C37" s="12"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -1439,13 +1219,8 @@
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-    </row>
-    <row r="38" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="38" spans="1:10" ht="12.75" customHeight="1">
       <c r="A38" s="5">
         <v>37257</v>
       </c>
@@ -1460,13 +1235,8 @@
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-    </row>
-    <row r="39" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="39" spans="1:10" ht="12.75" customHeight="1">
       <c r="A39" s="5">
         <v>37288</v>
       </c>
@@ -1481,13 +1251,8 @@
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-    </row>
-    <row r="40" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="40" spans="1:10" ht="12.75" customHeight="1">
       <c r="A40" s="5">
         <v>37316</v>
       </c>
@@ -1502,13 +1267,8 @@
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-    </row>
-    <row r="41" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="41" spans="1:10" ht="12.75" customHeight="1">
       <c r="A41" s="5">
         <v>37347</v>
       </c>
@@ -1523,13 +1283,8 @@
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-    </row>
-    <row r="42" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="42" spans="1:10" ht="12.75" customHeight="1">
       <c r="A42" s="5">
         <v>37377</v>
       </c>
@@ -1544,13 +1299,8 @@
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-    </row>
-    <row r="43" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="43" spans="1:10" ht="12.75" customHeight="1">
       <c r="A43" s="5">
         <v>37408</v>
       </c>
@@ -1565,13 +1315,8 @@
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-    </row>
-    <row r="44" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="44" spans="1:10" ht="12.75" customHeight="1">
       <c r="A44" s="5">
         <v>37438</v>
       </c>
@@ -1586,13 +1331,8 @@
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-    </row>
-    <row r="45" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="45" spans="1:10" ht="12.75" customHeight="1">
       <c r="A45" s="5">
         <v>37469</v>
       </c>
@@ -1607,13 +1347,8 @@
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-    </row>
-    <row r="46" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="46" spans="1:10" ht="12.75" customHeight="1">
       <c r="A46" s="5">
         <v>37500</v>
       </c>
@@ -1628,13 +1363,8 @@
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-    </row>
-    <row r="47" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="47" spans="1:10" ht="12.75" customHeight="1">
       <c r="A47" s="5">
         <v>37530</v>
       </c>
@@ -1649,13 +1379,8 @@
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
-    </row>
-    <row r="48" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="48" spans="1:10" ht="12.75" customHeight="1">
       <c r="A48" s="5">
         <v>37561</v>
       </c>
@@ -1670,20 +1395,15 @@
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
-      <c r="O48" s="4"/>
-    </row>
-    <row r="49" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A49" s="16">
+    </row>
+    <row r="49" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A49" s="10">
         <v>37591</v>
       </c>
-      <c r="B49" s="17">
+      <c r="B49" s="11">
         <v>1257</v>
       </c>
-      <c r="C49" s="18"/>
+      <c r="C49" s="12"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
@@ -1691,13 +1411,8 @@
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
-    </row>
-    <row r="50" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="50" spans="1:10" ht="12.75" customHeight="1">
       <c r="A50" s="5">
         <v>37622</v>
       </c>
@@ -1712,13 +1427,8 @@
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4"/>
-      <c r="O50" s="4"/>
-    </row>
-    <row r="51" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="51" spans="1:10" ht="12.75" customHeight="1">
       <c r="A51" s="5">
         <v>37653</v>
       </c>
@@ -1733,13 +1443,8 @@
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
-      <c r="O51" s="4"/>
-    </row>
-    <row r="52" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="52" spans="1:10" ht="12.75" customHeight="1">
       <c r="A52" s="5">
         <v>37681</v>
       </c>
@@ -1754,13 +1459,8 @@
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="4"/>
-      <c r="O52" s="4"/>
-    </row>
-    <row r="53" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="53" spans="1:10" ht="12.75" customHeight="1">
       <c r="A53" s="5">
         <v>37712</v>
       </c>
@@ -1775,13 +1475,8 @@
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4"/>
-      <c r="O53" s="4"/>
-    </row>
-    <row r="54" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="54" spans="1:10" ht="12.75" customHeight="1">
       <c r="A54" s="5">
         <v>37742</v>
       </c>
@@ -1796,13 +1491,8 @@
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4"/>
-      <c r="O54" s="4"/>
-    </row>
-    <row r="55" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="55" spans="1:10" ht="12.75" customHeight="1">
       <c r="A55" s="5">
         <v>37773</v>
       </c>
@@ -1817,13 +1507,8 @@
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
-      <c r="O55" s="4"/>
-    </row>
-    <row r="56" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="56" spans="1:10" ht="12.75" customHeight="1">
       <c r="A56" s="5">
         <v>37803</v>
       </c>
@@ -1838,13 +1523,8 @@
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
-      <c r="O56" s="4"/>
-    </row>
-    <row r="57" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="57" spans="1:10" ht="12.75" customHeight="1">
       <c r="A57" s="5">
         <v>37834</v>
       </c>
@@ -1859,13 +1539,8 @@
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4"/>
-      <c r="O57" s="4"/>
-    </row>
-    <row r="58" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="58" spans="1:10" ht="12.75" customHeight="1">
       <c r="A58" s="5">
         <v>37865</v>
       </c>
@@ -1880,13 +1555,8 @@
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="4"/>
-      <c r="O58" s="4"/>
-    </row>
-    <row r="59" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="59" spans="1:10" ht="12.75" customHeight="1">
       <c r="A59" s="5">
         <v>37895</v>
       </c>
@@ -1901,13 +1571,8 @@
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="4"/>
-      <c r="O59" s="4"/>
-    </row>
-    <row r="60" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="60" spans="1:10" ht="12.75" customHeight="1">
       <c r="A60" s="5">
         <v>37926</v>
       </c>
@@ -1922,20 +1587,15 @@
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="4"/>
-      <c r="O60" s="4"/>
-    </row>
-    <row r="61" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A61" s="16">
+    </row>
+    <row r="61" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A61" s="10">
         <v>37956</v>
       </c>
-      <c r="B61" s="17">
+      <c r="B61" s="11">
         <v>1244</v>
       </c>
-      <c r="C61" s="18"/>
+      <c r="C61" s="12"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
@@ -1943,13 +1603,8 @@
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="4"/>
-      <c r="O61" s="4"/>
-    </row>
-    <row r="62" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="62" spans="1:10" ht="12.75" customHeight="1">
       <c r="A62" s="5">
         <v>37987</v>
       </c>
@@ -1964,13 +1619,8 @@
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
-      <c r="N62" s="4"/>
-      <c r="O62" s="4"/>
-    </row>
-    <row r="63" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="63" spans="1:10" ht="12.75" customHeight="1">
       <c r="A63" s="5">
         <v>38018</v>
       </c>
@@ -1985,13 +1635,8 @@
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
-      <c r="N63" s="4"/>
-      <c r="O63" s="4"/>
-    </row>
-    <row r="64" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="64" spans="1:10" ht="12.75" customHeight="1">
       <c r="A64" s="5">
         <v>38047</v>
       </c>
@@ -2006,13 +1651,8 @@
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
-      <c r="N64" s="4"/>
-      <c r="O64" s="4"/>
-    </row>
-    <row r="65" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="65" spans="1:10" ht="12.75" customHeight="1">
       <c r="A65" s="5">
         <v>38078</v>
       </c>
@@ -2027,13 +1667,8 @@
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
-      <c r="M65" s="4"/>
-      <c r="N65" s="4"/>
-      <c r="O65" s="4"/>
-    </row>
-    <row r="66" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="66" spans="1:10" ht="12.75" customHeight="1">
       <c r="A66" s="5">
         <v>38108</v>
       </c>
@@ -2048,13 +1683,8 @@
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
-      <c r="M66" s="4"/>
-      <c r="N66" s="4"/>
-      <c r="O66" s="4"/>
-    </row>
-    <row r="67" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="67" spans="1:10" ht="12.75" customHeight="1">
       <c r="A67" s="5">
         <v>38139</v>
       </c>
@@ -2069,13 +1699,8 @@
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
-      <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
-      <c r="M67" s="4"/>
-      <c r="N67" s="4"/>
-      <c r="O67" s="4"/>
-    </row>
-    <row r="68" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="68" spans="1:10" ht="12.75" customHeight="1">
       <c r="A68" s="5">
         <v>38169</v>
       </c>
@@ -2090,13 +1715,8 @@
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
-      <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
-      <c r="M68" s="4"/>
-      <c r="N68" s="4"/>
-      <c r="O68" s="4"/>
-    </row>
-    <row r="69" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="69" spans="1:10" ht="12.75" customHeight="1">
       <c r="A69" s="5">
         <v>38200</v>
       </c>
@@ -2111,13 +1731,8 @@
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
-      <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
-      <c r="M69" s="4"/>
-      <c r="N69" s="4"/>
-      <c r="O69" s="4"/>
-    </row>
-    <row r="70" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="70" spans="1:10" ht="12.75" customHeight="1">
       <c r="A70" s="5">
         <v>38231</v>
       </c>
@@ -2132,13 +1747,8 @@
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
-      <c r="M70" s="4"/>
-      <c r="N70" s="4"/>
-      <c r="O70" s="4"/>
-    </row>
-    <row r="71" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="71" spans="1:10" ht="12.75" customHeight="1">
       <c r="A71" s="5">
         <v>38261</v>
       </c>
@@ -2153,13 +1763,8 @@
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
-      <c r="M71" s="4"/>
-      <c r="N71" s="4"/>
-      <c r="O71" s="4"/>
-    </row>
-    <row r="72" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="72" spans="1:10" ht="12.75" customHeight="1">
       <c r="A72" s="5">
         <v>38292</v>
       </c>
@@ -2174,20 +1779,15 @@
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
-      <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
-      <c r="M72" s="4"/>
-      <c r="N72" s="4"/>
-      <c r="O72" s="4"/>
-    </row>
-    <row r="73" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A73" s="16">
+    </row>
+    <row r="73" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A73" s="10">
         <v>38322</v>
       </c>
-      <c r="B73" s="17">
+      <c r="B73" s="11">
         <v>1330</v>
       </c>
-      <c r="C73" s="18"/>
+      <c r="C73" s="12"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
@@ -2195,13 +1795,8 @@
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
-      <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
-      <c r="M73" s="4"/>
-      <c r="N73" s="4"/>
-      <c r="O73" s="4"/>
-    </row>
-    <row r="74" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="74" spans="1:10" ht="12.75" customHeight="1">
       <c r="A74" s="5">
         <v>38353</v>
       </c>
@@ -2216,13 +1811,8 @@
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
-      <c r="K74" s="4"/>
-      <c r="L74" s="4"/>
-      <c r="M74" s="4"/>
-      <c r="N74" s="4"/>
-      <c r="O74" s="4"/>
-    </row>
-    <row r="75" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="75" spans="1:10" ht="12.75" customHeight="1">
       <c r="A75" s="5">
         <v>38384</v>
       </c>
@@ -2237,13 +1827,8 @@
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
-      <c r="K75" s="4"/>
-      <c r="L75" s="4"/>
-      <c r="M75" s="4"/>
-      <c r="N75" s="4"/>
-      <c r="O75" s="4"/>
-    </row>
-    <row r="76" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="76" spans="1:10" ht="12.75" customHeight="1">
       <c r="A76" s="5">
         <v>38412</v>
       </c>
@@ -2258,13 +1843,8 @@
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
-      <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
-      <c r="M76" s="4"/>
-      <c r="N76" s="4"/>
-      <c r="O76" s="4"/>
-    </row>
-    <row r="77" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="77" spans="1:10" ht="12.75" customHeight="1">
       <c r="A77" s="5">
         <v>38443</v>
       </c>
@@ -2279,13 +1859,8 @@
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
-      <c r="M77" s="4"/>
-      <c r="N77" s="4"/>
-      <c r="O77" s="4"/>
-    </row>
-    <row r="78" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="78" spans="1:10" ht="12.75" customHeight="1">
       <c r="A78" s="5">
         <v>38473</v>
       </c>
@@ -2300,13 +1875,8 @@
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
-      <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
-      <c r="M78" s="4"/>
-      <c r="N78" s="4"/>
-      <c r="O78" s="4"/>
-    </row>
-    <row r="79" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="79" spans="1:10" ht="12.75" customHeight="1">
       <c r="A79" s="5">
         <v>38504</v>
       </c>
@@ -2321,13 +1891,8 @@
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
-      <c r="K79" s="4"/>
-      <c r="L79" s="4"/>
-      <c r="M79" s="4"/>
-      <c r="N79" s="4"/>
-      <c r="O79" s="4"/>
-    </row>
-    <row r="80" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="80" spans="1:10" ht="12.75" customHeight="1">
       <c r="A80" s="5">
         <v>38534</v>
       </c>
@@ -2342,13 +1907,8 @@
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
-      <c r="K80" s="4"/>
-      <c r="L80" s="4"/>
-      <c r="M80" s="4"/>
-      <c r="N80" s="4"/>
-      <c r="O80" s="4"/>
-    </row>
-    <row r="81" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="81" spans="1:10" ht="12.75" customHeight="1">
       <c r="A81" s="5">
         <v>38565</v>
       </c>
@@ -2363,13 +1923,8 @@
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
-      <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
-      <c r="M81" s="4"/>
-      <c r="N81" s="4"/>
-      <c r="O81" s="4"/>
-    </row>
-    <row r="82" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="82" spans="1:10" ht="12.75" customHeight="1">
       <c r="A82" s="5">
         <v>38596</v>
       </c>
@@ -2384,13 +1939,8 @@
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
-      <c r="M82" s="4"/>
-      <c r="N82" s="4"/>
-      <c r="O82" s="4"/>
-    </row>
-    <row r="83" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="83" spans="1:10" ht="12.75" customHeight="1">
       <c r="A83" s="5">
         <v>38626</v>
       </c>
@@ -2405,13 +1955,8 @@
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
-      <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
-      <c r="M83" s="4"/>
-      <c r="N83" s="4"/>
-      <c r="O83" s="4"/>
-    </row>
-    <row r="84" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="84" spans="1:10" ht="12.75" customHeight="1">
       <c r="A84" s="5">
         <v>38657</v>
       </c>
@@ -2426,20 +1971,15 @@
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
-      <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
-      <c r="M84" s="4"/>
-      <c r="N84" s="4"/>
-      <c r="O84" s="4"/>
-    </row>
-    <row r="85" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A85" s="16">
+    </row>
+    <row r="85" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A85" s="10">
         <v>38687</v>
       </c>
-      <c r="B85" s="17">
+      <c r="B85" s="11">
         <v>1066</v>
       </c>
-      <c r="C85" s="18"/>
+      <c r="C85" s="12"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
@@ -2447,13 +1987,8 @@
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
-      <c r="K85" s="4"/>
-      <c r="L85" s="4"/>
-      <c r="M85" s="4"/>
-      <c r="N85" s="4"/>
-      <c r="O85" s="4"/>
-    </row>
-    <row r="86" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="86" spans="1:10" ht="12.75" customHeight="1">
       <c r="A86" s="5">
         <v>38718</v>
       </c>
@@ -2468,13 +2003,8 @@
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
-      <c r="K86" s="4"/>
-      <c r="L86" s="4"/>
-      <c r="M86" s="4"/>
-      <c r="N86" s="4"/>
-      <c r="O86" s="4"/>
-    </row>
-    <row r="87" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="87" spans="1:10" ht="12.75" customHeight="1">
       <c r="A87" s="5">
         <v>38749</v>
       </c>
@@ -2489,13 +2019,8 @@
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
-      <c r="K87" s="4"/>
-      <c r="L87" s="4"/>
-      <c r="M87" s="4"/>
-      <c r="N87" s="4"/>
-      <c r="O87" s="4"/>
-    </row>
-    <row r="88" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="88" spans="1:10" ht="12.75" customHeight="1">
       <c r="A88" s="5">
         <v>38777</v>
       </c>
@@ -2510,13 +2035,8 @@
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
-      <c r="K88" s="4"/>
-      <c r="L88" s="4"/>
-      <c r="M88" s="4"/>
-      <c r="N88" s="4"/>
-      <c r="O88" s="4"/>
-    </row>
-    <row r="89" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="89" spans="1:10" ht="12.75" customHeight="1">
       <c r="A89" s="5">
         <v>38808</v>
       </c>
@@ -2531,13 +2051,8 @@
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
-      <c r="K89" s="4"/>
-      <c r="L89" s="4"/>
-      <c r="M89" s="4"/>
-      <c r="N89" s="4"/>
-      <c r="O89" s="4"/>
-    </row>
-    <row r="90" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="90" spans="1:10" ht="12.75" customHeight="1">
       <c r="A90" s="5">
         <v>38838</v>
       </c>
@@ -2552,13 +2067,8 @@
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
-      <c r="K90" s="4"/>
-      <c r="L90" s="4"/>
-      <c r="M90" s="4"/>
-      <c r="N90" s="4"/>
-      <c r="O90" s="4"/>
-    </row>
-    <row r="91" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="91" spans="1:10" ht="12.75" customHeight="1">
       <c r="A91" s="5">
         <v>38869</v>
       </c>
@@ -2573,13 +2083,8 @@
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
-      <c r="K91" s="4"/>
-      <c r="L91" s="4"/>
-      <c r="M91" s="4"/>
-      <c r="N91" s="4"/>
-      <c r="O91" s="4"/>
-    </row>
-    <row r="92" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="92" spans="1:10" ht="12.75" customHeight="1">
       <c r="A92" s="5">
         <v>38899</v>
       </c>
@@ -2594,13 +2099,8 @@
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
-      <c r="K92" s="4"/>
-      <c r="L92" s="4"/>
-      <c r="M92" s="4"/>
-      <c r="N92" s="4"/>
-      <c r="O92" s="4"/>
-    </row>
-    <row r="93" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="93" spans="1:10" ht="12.75" customHeight="1">
       <c r="A93" s="5">
         <v>38930</v>
       </c>
@@ -2615,13 +2115,8 @@
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
-      <c r="K93" s="4"/>
-      <c r="L93" s="4"/>
-      <c r="M93" s="4"/>
-      <c r="N93" s="4"/>
-      <c r="O93" s="4"/>
-    </row>
-    <row r="94" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="94" spans="1:10" ht="12.75" customHeight="1">
       <c r="A94" s="5">
         <v>38961</v>
       </c>
@@ -2636,13 +2131,8 @@
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
-      <c r="K94" s="4"/>
-      <c r="L94" s="4"/>
-      <c r="M94" s="4"/>
-      <c r="N94" s="4"/>
-      <c r="O94" s="4"/>
-    </row>
-    <row r="95" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="95" spans="1:10" ht="12.75" customHeight="1">
       <c r="A95" s="5">
         <v>38991</v>
       </c>
@@ -2657,13 +2147,8 @@
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
-      <c r="K95" s="4"/>
-      <c r="L95" s="4"/>
-      <c r="M95" s="4"/>
-      <c r="N95" s="4"/>
-      <c r="O95" s="4"/>
-    </row>
-    <row r="96" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="96" spans="1:10" ht="12.75" customHeight="1">
       <c r="A96" s="5">
         <v>39022</v>
       </c>
@@ -2678,20 +2163,15 @@
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
-      <c r="K96" s="4"/>
-      <c r="L96" s="4"/>
-      <c r="M96" s="4"/>
-      <c r="N96" s="4"/>
-      <c r="O96" s="4"/>
-    </row>
-    <row r="97" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A97" s="16">
+    </row>
+    <row r="97" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A97" s="10">
         <v>39052</v>
       </c>
-      <c r="B97" s="17">
+      <c r="B97" s="11">
         <v>1294</v>
       </c>
-      <c r="C97" s="18"/>
+      <c r="C97" s="12"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
@@ -2699,13 +2179,8 @@
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
-      <c r="K97" s="4"/>
-      <c r="L97" s="4"/>
-      <c r="M97" s="4"/>
-      <c r="N97" s="4"/>
-      <c r="O97" s="4"/>
-    </row>
-    <row r="98" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="98" spans="1:10" ht="12.75" customHeight="1">
       <c r="A98" s="5">
         <v>39083</v>
       </c>
@@ -2720,13 +2195,8 @@
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
-      <c r="K98" s="4"/>
-      <c r="L98" s="4"/>
-      <c r="M98" s="4"/>
-      <c r="N98" s="4"/>
-      <c r="O98" s="4"/>
-    </row>
-    <row r="99" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="99" spans="1:10" ht="12.75" customHeight="1">
       <c r="A99" s="5">
         <v>39114</v>
       </c>
@@ -2741,13 +2211,8 @@
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
-      <c r="K99" s="4"/>
-      <c r="L99" s="4"/>
-      <c r="M99" s="4"/>
-      <c r="N99" s="4"/>
-      <c r="O99" s="4"/>
-    </row>
-    <row r="100" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="100" spans="1:10" ht="12.75" customHeight="1">
       <c r="A100" s="5">
         <v>39142</v>
       </c>
@@ -2762,13 +2227,8 @@
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
-      <c r="K100" s="4"/>
-      <c r="L100" s="4"/>
-      <c r="M100" s="4"/>
-      <c r="N100" s="4"/>
-      <c r="O100" s="4"/>
-    </row>
-    <row r="101" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="101" spans="1:10" ht="12.75" customHeight="1">
       <c r="A101" s="5">
         <v>39173</v>
       </c>
@@ -2783,13 +2243,8 @@
       <c r="H101" s="4"/>
       <c r="I101" s="4"/>
       <c r="J101" s="4"/>
-      <c r="K101" s="4"/>
-      <c r="L101" s="4"/>
-      <c r="M101" s="4"/>
-      <c r="N101" s="4"/>
-      <c r="O101" s="4"/>
-    </row>
-    <row r="102" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="102" spans="1:10" ht="12.75" customHeight="1">
       <c r="A102" s="5">
         <v>39203</v>
       </c>
@@ -2804,13 +2259,8 @@
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
       <c r="J102" s="4"/>
-      <c r="K102" s="4"/>
-      <c r="L102" s="4"/>
-      <c r="M102" s="4"/>
-      <c r="N102" s="4"/>
-      <c r="O102" s="4"/>
-    </row>
-    <row r="103" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="103" spans="1:10" ht="12.75" customHeight="1">
       <c r="A103" s="5">
         <v>39234</v>
       </c>
@@ -2825,13 +2275,8 @@
       <c r="H103" s="4"/>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
-      <c r="K103" s="4"/>
-      <c r="L103" s="4"/>
-      <c r="M103" s="4"/>
-      <c r="N103" s="4"/>
-      <c r="O103" s="4"/>
-    </row>
-    <row r="104" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="104" spans="1:10" ht="12.75" customHeight="1">
       <c r="A104" s="5">
         <v>39264</v>
       </c>
@@ -2846,13 +2291,8 @@
       <c r="H104" s="4"/>
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
-      <c r="K104" s="4"/>
-      <c r="L104" s="4"/>
-      <c r="M104" s="4"/>
-      <c r="N104" s="4"/>
-      <c r="O104" s="4"/>
-    </row>
-    <row r="105" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="105" spans="1:10" ht="12.75" customHeight="1">
       <c r="A105" s="5">
         <v>39295</v>
       </c>
@@ -2867,13 +2307,8 @@
       <c r="H105" s="4"/>
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
-      <c r="K105" s="4"/>
-      <c r="L105" s="4"/>
-      <c r="M105" s="4"/>
-      <c r="N105" s="4"/>
-      <c r="O105" s="4"/>
-    </row>
-    <row r="106" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="106" spans="1:10" ht="12.75" customHeight="1">
       <c r="A106" s="5">
         <v>39326</v>
       </c>
@@ -2888,13 +2323,8 @@
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
-      <c r="K106" s="4"/>
-      <c r="L106" s="4"/>
-      <c r="M106" s="4"/>
-      <c r="N106" s="4"/>
-      <c r="O106" s="4"/>
-    </row>
-    <row r="107" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="107" spans="1:10" ht="12.75" customHeight="1">
       <c r="A107" s="5">
         <v>39356</v>
       </c>
@@ -2909,13 +2339,8 @@
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
       <c r="J107" s="4"/>
-      <c r="K107" s="4"/>
-      <c r="L107" s="4"/>
-      <c r="M107" s="4"/>
-      <c r="N107" s="4"/>
-      <c r="O107" s="4"/>
-    </row>
-    <row r="108" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="108" spans="1:10" ht="12.75" customHeight="1">
       <c r="A108" s="5">
         <v>39387</v>
       </c>
@@ -2930,20 +2355,15 @@
       <c r="H108" s="4"/>
       <c r="I108" s="4"/>
       <c r="J108" s="4"/>
-      <c r="K108" s="4"/>
-      <c r="L108" s="4"/>
-      <c r="M108" s="4"/>
-      <c r="N108" s="4"/>
-      <c r="O108" s="4"/>
-    </row>
-    <row r="109" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A109" s="16">
+    </row>
+    <row r="109" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A109" s="10">
         <v>39417</v>
       </c>
-      <c r="B109" s="17">
+      <c r="B109" s="11">
         <v>1363</v>
       </c>
-      <c r="C109" s="18"/>
+      <c r="C109" s="12"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
@@ -2951,13 +2371,8 @@
       <c r="H109" s="4"/>
       <c r="I109" s="4"/>
       <c r="J109" s="4"/>
-      <c r="K109" s="4"/>
-      <c r="L109" s="4"/>
-      <c r="M109" s="4"/>
-      <c r="N109" s="4"/>
-      <c r="O109" s="4"/>
-    </row>
-    <row r="110" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="110" spans="1:10" ht="12.75" customHeight="1">
       <c r="A110" s="5">
         <v>39448</v>
       </c>
@@ -2972,13 +2387,8 @@
       <c r="H110" s="4"/>
       <c r="I110" s="4"/>
       <c r="J110" s="4"/>
-      <c r="K110" s="4"/>
-      <c r="L110" s="4"/>
-      <c r="M110" s="4"/>
-      <c r="N110" s="4"/>
-      <c r="O110" s="4"/>
-    </row>
-    <row r="111" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="111" spans="1:10" ht="12.75" customHeight="1">
       <c r="A111" s="5">
         <v>39479</v>
       </c>
@@ -2993,13 +2403,8 @@
       <c r="H111" s="4"/>
       <c r="I111" s="4"/>
       <c r="J111" s="4"/>
-      <c r="K111" s="4"/>
-      <c r="L111" s="4"/>
-      <c r="M111" s="4"/>
-      <c r="N111" s="4"/>
-      <c r="O111" s="4"/>
-    </row>
-    <row r="112" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="112" spans="1:10" ht="12.75" customHeight="1">
       <c r="A112" s="5">
         <v>39508</v>
       </c>
@@ -3014,13 +2419,8 @@
       <c r="H112" s="4"/>
       <c r="I112" s="4"/>
       <c r="J112" s="4"/>
-      <c r="K112" s="4"/>
-      <c r="L112" s="4"/>
-      <c r="M112" s="4"/>
-      <c r="N112" s="4"/>
-      <c r="O112" s="4"/>
-    </row>
-    <row r="113" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="113" spans="1:10" ht="12.75" customHeight="1">
       <c r="A113" s="5">
         <v>39539</v>
       </c>
@@ -3035,13 +2435,8 @@
       <c r="H113" s="4"/>
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
-      <c r="K113" s="4"/>
-      <c r="L113" s="4"/>
-      <c r="M113" s="4"/>
-      <c r="N113" s="4"/>
-      <c r="O113" s="4"/>
-    </row>
-    <row r="114" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="114" spans="1:10" ht="12.75" customHeight="1">
       <c r="A114" s="5">
         <v>39569</v>
       </c>
@@ -3056,13 +2451,8 @@
       <c r="H114" s="4"/>
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
-      <c r="K114" s="4"/>
-      <c r="L114" s="4"/>
-      <c r="M114" s="4"/>
-      <c r="N114" s="4"/>
-      <c r="O114" s="4"/>
-    </row>
-    <row r="115" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="115" spans="1:10" ht="12.75" customHeight="1">
       <c r="A115" s="5">
         <v>39600</v>
       </c>
@@ -3077,13 +2467,8 @@
       <c r="H115" s="4"/>
       <c r="I115" s="4"/>
       <c r="J115" s="4"/>
-      <c r="K115" s="4"/>
-      <c r="L115" s="4"/>
-      <c r="M115" s="4"/>
-      <c r="N115" s="4"/>
-      <c r="O115" s="4"/>
-    </row>
-    <row r="116" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="116" spans="1:10" ht="12.75" customHeight="1">
       <c r="A116" s="5">
         <v>39630</v>
       </c>
@@ -3098,13 +2483,8 @@
       <c r="H116" s="4"/>
       <c r="I116" s="4"/>
       <c r="J116" s="4"/>
-      <c r="K116" s="4"/>
-      <c r="L116" s="4"/>
-      <c r="M116" s="4"/>
-      <c r="N116" s="4"/>
-      <c r="O116" s="4"/>
-    </row>
-    <row r="117" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="117" spans="1:10" ht="12.75" customHeight="1">
       <c r="A117" s="5">
         <v>39661</v>
       </c>
@@ -3119,13 +2499,8 @@
       <c r="H117" s="4"/>
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
-      <c r="K117" s="4"/>
-      <c r="L117" s="4"/>
-      <c r="M117" s="4"/>
-      <c r="N117" s="4"/>
-      <c r="O117" s="4"/>
-    </row>
-    <row r="118" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="118" spans="1:10" ht="12.75" customHeight="1">
       <c r="A118" s="5">
         <v>39692</v>
       </c>
@@ -3140,13 +2515,8 @@
       <c r="H118" s="4"/>
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
-      <c r="K118" s="4"/>
-      <c r="L118" s="4"/>
-      <c r="M118" s="4"/>
-      <c r="N118" s="4"/>
-      <c r="O118" s="4"/>
-    </row>
-    <row r="119" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="119" spans="1:10" ht="12.75" customHeight="1">
       <c r="A119" s="5">
         <v>39722</v>
       </c>
@@ -3161,13 +2531,8 @@
       <c r="H119" s="4"/>
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
-      <c r="K119" s="4"/>
-      <c r="L119" s="4"/>
-      <c r="M119" s="4"/>
-      <c r="N119" s="4"/>
-      <c r="O119" s="4"/>
-    </row>
-    <row r="120" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="120" spans="1:10" ht="12.75" customHeight="1">
       <c r="A120" s="5">
         <v>39753</v>
       </c>
@@ -3182,20 +2547,15 @@
       <c r="H120" s="4"/>
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
-      <c r="K120" s="4"/>
-      <c r="L120" s="4"/>
-      <c r="M120" s="4"/>
-      <c r="N120" s="4"/>
-      <c r="O120" s="4"/>
-    </row>
-    <row r="121" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
+    </row>
+    <row r="121" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
       <c r="A121" s="5">
         <v>39783</v>
       </c>
-      <c r="B121" s="17">
+      <c r="B121" s="11">
         <v>1105</v>
       </c>
-      <c r="C121" s="18"/>
+      <c r="C121" s="12"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
@@ -3203,14 +2563,9 @@
       <c r="H121" s="4"/>
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
-      <c r="K121" s="4"/>
-      <c r="L121" s="4"/>
-      <c r="M121" s="4"/>
-      <c r="N121" s="4"/>
-      <c r="O121" s="4"/>
-    </row>
-    <row r="122" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A122" s="19">
+    </row>
+    <row r="122" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A122" s="13">
         <v>39814</v>
       </c>
       <c r="B122" s="6">
@@ -3224,13 +2579,8 @@
       <c r="H122" s="4"/>
       <c r="I122" s="4"/>
       <c r="J122" s="4"/>
-      <c r="K122" s="4"/>
-      <c r="L122" s="4"/>
-      <c r="M122" s="4"/>
-      <c r="N122" s="4"/>
-      <c r="O122" s="4"/>
-    </row>
-    <row r="123" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="123" spans="1:10" ht="12.75" customHeight="1">
       <c r="A123" s="5">
         <v>39845</v>
       </c>
@@ -3245,13 +2595,8 @@
       <c r="H123" s="4"/>
       <c r="I123" s="4"/>
       <c r="J123" s="4"/>
-      <c r="K123" s="4"/>
-      <c r="L123" s="4"/>
-      <c r="M123" s="4"/>
-      <c r="N123" s="4"/>
-      <c r="O123" s="4"/>
-    </row>
-    <row r="124" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="124" spans="1:10" ht="12.75" customHeight="1">
       <c r="A124" s="5">
         <v>39873</v>
       </c>
@@ -3266,13 +2611,8 @@
       <c r="H124" s="4"/>
       <c r="I124" s="4"/>
       <c r="J124" s="4"/>
-      <c r="K124" s="4"/>
-      <c r="L124" s="4"/>
-      <c r="M124" s="4"/>
-      <c r="N124" s="4"/>
-      <c r="O124" s="4"/>
-    </row>
-    <row r="125" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="125" spans="1:10" ht="12.75" customHeight="1">
       <c r="A125" s="5">
         <v>39904</v>
       </c>
@@ -3287,13 +2627,8 @@
       <c r="H125" s="4"/>
       <c r="I125" s="4"/>
       <c r="J125" s="4"/>
-      <c r="K125" s="4"/>
-      <c r="L125" s="4"/>
-      <c r="M125" s="4"/>
-      <c r="N125" s="4"/>
-      <c r="O125" s="4"/>
-    </row>
-    <row r="126" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="126" spans="1:10" ht="12.75" customHeight="1">
       <c r="A126" s="5">
         <v>39934</v>
       </c>
@@ -3308,13 +2643,8 @@
       <c r="H126" s="4"/>
       <c r="I126" s="4"/>
       <c r="J126" s="4"/>
-      <c r="K126" s="4"/>
-      <c r="L126" s="4"/>
-      <c r="M126" s="4"/>
-      <c r="N126" s="4"/>
-      <c r="O126" s="4"/>
-    </row>
-    <row r="127" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="127" spans="1:10" ht="12.75" customHeight="1">
       <c r="A127" s="5">
         <v>39965</v>
       </c>
@@ -3329,13 +2659,8 @@
       <c r="H127" s="4"/>
       <c r="I127" s="4"/>
       <c r="J127" s="4"/>
-      <c r="K127" s="4"/>
-      <c r="L127" s="4"/>
-      <c r="M127" s="4"/>
-      <c r="N127" s="4"/>
-      <c r="O127" s="4"/>
-    </row>
-    <row r="128" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="128" spans="1:10" ht="12.75" customHeight="1">
       <c r="A128" s="5">
         <v>39995</v>
       </c>
@@ -3350,13 +2675,8 @@
       <c r="H128" s="4"/>
       <c r="I128" s="4"/>
       <c r="J128" s="4"/>
-      <c r="K128" s="4"/>
-      <c r="L128" s="4"/>
-      <c r="M128" s="4"/>
-      <c r="N128" s="4"/>
-      <c r="O128" s="4"/>
-    </row>
-    <row r="129" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="129" spans="1:10" ht="12.75" customHeight="1">
       <c r="A129" s="5">
         <v>40026</v>
       </c>
@@ -3371,13 +2691,8 @@
       <c r="H129" s="4"/>
       <c r="I129" s="4"/>
       <c r="J129" s="4"/>
-      <c r="K129" s="4"/>
-      <c r="L129" s="4"/>
-      <c r="M129" s="4"/>
-      <c r="N129" s="4"/>
-      <c r="O129" s="4"/>
-    </row>
-    <row r="130" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="130" spans="1:10" ht="12.75" customHeight="1">
       <c r="A130" s="5">
         <v>40057</v>
       </c>
@@ -3392,13 +2707,8 @@
       <c r="H130" s="4"/>
       <c r="I130" s="4"/>
       <c r="J130" s="4"/>
-      <c r="K130" s="4"/>
-      <c r="L130" s="4"/>
-      <c r="M130" s="4"/>
-      <c r="N130" s="4"/>
-      <c r="O130" s="4"/>
-    </row>
-    <row r="131" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="131" spans="1:10" ht="12.75" customHeight="1">
       <c r="A131" s="5">
         <v>40087</v>
       </c>
@@ -3413,13 +2723,8 @@
       <c r="H131" s="4"/>
       <c r="I131" s="4"/>
       <c r="J131" s="4"/>
-      <c r="K131" s="4"/>
-      <c r="L131" s="4"/>
-      <c r="M131" s="4"/>
-      <c r="N131" s="4"/>
-      <c r="O131" s="4"/>
-    </row>
-    <row r="132" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="132" spans="1:10" ht="12.75" customHeight="1">
       <c r="A132" s="5">
         <v>40118</v>
       </c>
@@ -3434,20 +2739,15 @@
       <c r="H132" s="4"/>
       <c r="I132" s="4"/>
       <c r="J132" s="4"/>
-      <c r="K132" s="4"/>
-      <c r="L132" s="4"/>
-      <c r="M132" s="4"/>
-      <c r="N132" s="4"/>
-      <c r="O132" s="4"/>
-    </row>
-    <row r="133" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A133" s="16">
+    </row>
+    <row r="133" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A133" s="10">
         <v>40148</v>
       </c>
-      <c r="B133" s="17">
+      <c r="B133" s="11">
         <v>821</v>
       </c>
-      <c r="C133" s="18"/>
+      <c r="C133" s="12"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
@@ -3455,20 +2755,15 @@
       <c r="H133" s="4"/>
       <c r="I133" s="4"/>
       <c r="J133" s="4"/>
-      <c r="K133" s="4"/>
-      <c r="L133" s="4"/>
-      <c r="M133" s="4"/>
-      <c r="N133" s="4"/>
-      <c r="O133" s="4"/>
-    </row>
-    <row r="134" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="134" spans="1:10" ht="12.75" customHeight="1">
       <c r="A134" s="5">
         <v>40179</v>
       </c>
-      <c r="B134" s="20">
+      <c r="B134" s="14">
         <v>515</v>
       </c>
-      <c r="C134" s="21"/>
+      <c r="C134" s="15"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
@@ -3476,20 +2771,15 @@
       <c r="H134" s="4"/>
       <c r="I134" s="4"/>
       <c r="J134" s="4"/>
-      <c r="K134" s="4"/>
-      <c r="L134" s="4"/>
-      <c r="M134" s="4"/>
-      <c r="N134" s="4"/>
-      <c r="O134" s="4"/>
-    </row>
-    <row r="135" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="135" spans="1:10" ht="12.75" customHeight="1">
       <c r="A135" s="5">
         <v>40210</v>
       </c>
-      <c r="B135" s="22">
+      <c r="B135" s="16">
         <v>648</v>
       </c>
-      <c r="C135" s="23"/>
+      <c r="C135" s="17"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
@@ -3497,20 +2787,15 @@
       <c r="H135" s="4"/>
       <c r="I135" s="4"/>
       <c r="J135" s="4"/>
-      <c r="K135" s="4"/>
-      <c r="L135" s="4"/>
-      <c r="M135" s="4"/>
-      <c r="N135" s="4"/>
-      <c r="O135" s="4"/>
-    </row>
-    <row r="136" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="136" spans="1:10" ht="12.75" customHeight="1">
       <c r="A136" s="5">
         <v>40238</v>
       </c>
-      <c r="B136" s="22">
+      <c r="B136" s="16">
         <v>629</v>
       </c>
-      <c r="C136" s="23"/>
+      <c r="C136" s="17"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
@@ -3518,20 +2803,15 @@
       <c r="H136" s="4"/>
       <c r="I136" s="4"/>
       <c r="J136" s="4"/>
-      <c r="K136" s="4"/>
-      <c r="L136" s="4"/>
-      <c r="M136" s="4"/>
-      <c r="N136" s="4"/>
-      <c r="O136" s="4"/>
-    </row>
-    <row r="137" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="137" spans="1:10" ht="12.75" customHeight="1">
       <c r="A137" s="5">
         <v>40269</v>
       </c>
-      <c r="B137" s="22">
+      <c r="B137" s="16">
         <v>647</v>
       </c>
-      <c r="C137" s="23"/>
+      <c r="C137" s="17"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
@@ -3539,20 +2819,15 @@
       <c r="H137" s="4"/>
       <c r="I137" s="4"/>
       <c r="J137" s="4"/>
-      <c r="K137" s="4"/>
-      <c r="L137" s="4"/>
-      <c r="M137" s="4"/>
-      <c r="N137" s="4"/>
-      <c r="O137" s="4"/>
-    </row>
-    <row r="138" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="138" spans="1:10" ht="12.75" customHeight="1">
       <c r="A138" s="5">
         <v>40299</v>
       </c>
-      <c r="B138" s="22">
+      <c r="B138" s="16">
         <v>822</v>
       </c>
-      <c r="C138" s="23"/>
+      <c r="C138" s="17"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
@@ -3560,20 +2835,15 @@
       <c r="H138" s="4"/>
       <c r="I138" s="4"/>
       <c r="J138" s="4"/>
-      <c r="K138" s="4"/>
-      <c r="L138" s="4"/>
-      <c r="M138" s="4"/>
-      <c r="N138" s="4"/>
-      <c r="O138" s="4"/>
-    </row>
-    <row r="139" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="139" spans="1:10" ht="12.75" customHeight="1">
       <c r="A139" s="5">
         <v>40330</v>
       </c>
-      <c r="B139" s="22">
+      <c r="B139" s="16">
         <v>780</v>
       </c>
-      <c r="C139" s="23"/>
+      <c r="C139" s="17"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
@@ -3581,20 +2851,15 @@
       <c r="H139" s="4"/>
       <c r="I139" s="4"/>
       <c r="J139" s="4"/>
-      <c r="K139" s="4"/>
-      <c r="L139" s="4"/>
-      <c r="M139" s="4"/>
-      <c r="N139" s="4"/>
-      <c r="O139" s="4"/>
-    </row>
-    <row r="140" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="140" spans="1:10" ht="12.75" customHeight="1">
       <c r="A140" s="5">
         <v>40360</v>
       </c>
-      <c r="B140" s="22">
+      <c r="B140" s="16">
         <v>787</v>
       </c>
-      <c r="C140" s="23"/>
+      <c r="C140" s="17"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
@@ -3602,20 +2867,15 @@
       <c r="H140" s="4"/>
       <c r="I140" s="4"/>
       <c r="J140" s="4"/>
-      <c r="K140" s="4"/>
-      <c r="L140" s="4"/>
-      <c r="M140" s="4"/>
-      <c r="N140" s="4"/>
-      <c r="O140" s="4"/>
-    </row>
-    <row r="141" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="141" spans="1:10" ht="12.75" customHeight="1">
       <c r="A141" s="5">
         <v>40391</v>
       </c>
-      <c r="B141" s="22">
+      <c r="B141" s="16">
         <v>615</v>
       </c>
-      <c r="C141" s="23"/>
+      <c r="C141" s="17"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
@@ -3623,20 +2883,15 @@
       <c r="H141" s="4"/>
       <c r="I141" s="4"/>
       <c r="J141" s="4"/>
-      <c r="K141" s="4"/>
-      <c r="L141" s="4"/>
-      <c r="M141" s="4"/>
-      <c r="N141" s="4"/>
-      <c r="O141" s="4"/>
-    </row>
-    <row r="142" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="142" spans="1:10" ht="12.75" customHeight="1">
       <c r="A142" s="5">
         <v>40422</v>
       </c>
-      <c r="B142" s="22">
+      <c r="B142" s="16">
         <v>530</v>
       </c>
-      <c r="C142" s="23"/>
+      <c r="C142" s="17"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
@@ -3644,20 +2899,15 @@
       <c r="H142" s="4"/>
       <c r="I142" s="4"/>
       <c r="J142" s="4"/>
-      <c r="K142" s="4"/>
-      <c r="L142" s="4"/>
-      <c r="M142" s="4"/>
-      <c r="N142" s="4"/>
-      <c r="O142" s="4"/>
-    </row>
-    <row r="143" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="143" spans="1:10" ht="12.75" customHeight="1">
       <c r="A143" s="5">
         <v>40452</v>
       </c>
-      <c r="B143" s="22">
+      <c r="B143" s="16">
         <v>807</v>
       </c>
-      <c r="C143" s="23"/>
+      <c r="C143" s="17"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
@@ -3665,20 +2915,15 @@
       <c r="H143" s="4"/>
       <c r="I143" s="4"/>
       <c r="J143" s="4"/>
-      <c r="K143" s="4"/>
-      <c r="L143" s="4"/>
-      <c r="M143" s="4"/>
-      <c r="N143" s="4"/>
-      <c r="O143" s="4"/>
-    </row>
-    <row r="144" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="144" spans="1:10" ht="12.75" customHeight="1">
       <c r="A144" s="5">
         <v>40483</v>
       </c>
-      <c r="B144" s="22">
+      <c r="B144" s="16">
         <v>979</v>
       </c>
-      <c r="C144" s="23"/>
+      <c r="C144" s="17"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
@@ -3686,20 +2931,15 @@
       <c r="H144" s="4"/>
       <c r="I144" s="4"/>
       <c r="J144" s="4"/>
-      <c r="K144" s="4"/>
-      <c r="L144" s="4"/>
-      <c r="M144" s="4"/>
-      <c r="N144" s="4"/>
-      <c r="O144" s="4"/>
-    </row>
-    <row r="145" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A145" s="16">
+    </row>
+    <row r="145" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A145" s="10">
         <v>40513</v>
       </c>
-      <c r="B145" s="17">
+      <c r="B145" s="11">
         <v>1164</v>
       </c>
-      <c r="C145" s="18"/>
+      <c r="C145" s="12"/>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
@@ -3707,20 +2947,15 @@
       <c r="H145" s="4"/>
       <c r="I145" s="4"/>
       <c r="J145" s="4"/>
-      <c r="K145" s="4"/>
-      <c r="L145" s="4"/>
-      <c r="M145" s="4"/>
-      <c r="N145" s="4"/>
-      <c r="O145" s="4"/>
-    </row>
-    <row r="146" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="146" spans="1:10" ht="12.75" customHeight="1">
       <c r="A146" s="5">
         <v>40544</v>
       </c>
-      <c r="B146" s="20">
+      <c r="B146" s="14">
         <v>908</v>
       </c>
-      <c r="C146" s="21"/>
+      <c r="C146" s="15"/>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
@@ -3728,20 +2963,15 @@
       <c r="H146" s="4"/>
       <c r="I146" s="4"/>
       <c r="J146" s="4"/>
-      <c r="K146" s="4"/>
-      <c r="L146" s="4"/>
-      <c r="M146" s="4"/>
-      <c r="N146" s="4"/>
-      <c r="O146" s="4"/>
-    </row>
-    <row r="147" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="147" spans="1:10" ht="12.75" customHeight="1">
       <c r="A147" s="5">
         <v>40575</v>
       </c>
-      <c r="B147" s="22">
+      <c r="B147" s="16">
         <v>764</v>
       </c>
-      <c r="C147" s="23"/>
+      <c r="C147" s="17"/>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
@@ -3749,20 +2979,15 @@
       <c r="H147" s="4"/>
       <c r="I147" s="4"/>
       <c r="J147" s="4"/>
-      <c r="K147" s="4"/>
-      <c r="L147" s="4"/>
-      <c r="M147" s="4"/>
-      <c r="N147" s="4"/>
-      <c r="O147" s="4"/>
-    </row>
-    <row r="148" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="148" spans="1:10" ht="12.75" customHeight="1">
       <c r="A148" s="5">
         <v>40603</v>
       </c>
-      <c r="B148" s="22">
+      <c r="B148" s="16">
         <v>779</v>
       </c>
-      <c r="C148" s="23"/>
+      <c r="C148" s="17"/>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
@@ -3770,20 +2995,15 @@
       <c r="H148" s="4"/>
       <c r="I148" s="4"/>
       <c r="J148" s="4"/>
-      <c r="K148" s="4"/>
-      <c r="L148" s="4"/>
-      <c r="M148" s="4"/>
-      <c r="N148" s="4"/>
-      <c r="O148" s="4"/>
-    </row>
-    <row r="149" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="149" spans="1:10" ht="12.75" customHeight="1">
       <c r="A149" s="5">
         <v>40634</v>
       </c>
-      <c r="B149" s="22">
+      <c r="B149" s="16">
         <v>523</v>
       </c>
-      <c r="C149" s="23"/>
+      <c r="C149" s="17"/>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
@@ -3791,20 +3011,15 @@
       <c r="H149" s="4"/>
       <c r="I149" s="4"/>
       <c r="J149" s="4"/>
-      <c r="K149" s="4"/>
-      <c r="L149" s="4"/>
-      <c r="M149" s="4"/>
-      <c r="N149" s="4"/>
-      <c r="O149" s="4"/>
-    </row>
-    <row r="150" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="150" spans="1:10" ht="12.75" customHeight="1">
       <c r="A150" s="5">
         <v>40664</v>
       </c>
-      <c r="B150" s="22">
+      <c r="B150" s="16">
         <v>673</v>
       </c>
-      <c r="C150" s="23"/>
+      <c r="C150" s="17"/>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
@@ -3812,20 +3027,15 @@
       <c r="H150" s="4"/>
       <c r="I150" s="4"/>
       <c r="J150" s="4"/>
-      <c r="K150" s="4"/>
-      <c r="L150" s="4"/>
-      <c r="M150" s="4"/>
-      <c r="N150" s="4"/>
-      <c r="O150" s="4"/>
-    </row>
-    <row r="151" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="151" spans="1:10" ht="12.75" customHeight="1">
       <c r="A151" s="5">
         <v>40695</v>
       </c>
-      <c r="B151" s="22">
+      <c r="B151" s="16">
         <v>471</v>
       </c>
-      <c r="C151" s="23"/>
+      <c r="C151" s="17"/>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
@@ -3833,20 +3043,15 @@
       <c r="H151" s="4"/>
       <c r="I151" s="4"/>
       <c r="J151" s="4"/>
-      <c r="K151" s="4"/>
-      <c r="L151" s="4"/>
-      <c r="M151" s="4"/>
-      <c r="N151" s="4"/>
-      <c r="O151" s="4"/>
-    </row>
-    <row r="152" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="152" spans="1:10" ht="12.75" customHeight="1">
       <c r="A152" s="5">
         <v>40725</v>
       </c>
-      <c r="B152" s="22">
+      <c r="B152" s="16">
         <v>530</v>
       </c>
-      <c r="C152" s="23"/>
+      <c r="C152" s="17"/>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
@@ -3854,20 +3059,15 @@
       <c r="H152" s="4"/>
       <c r="I152" s="4"/>
       <c r="J152" s="4"/>
-      <c r="K152" s="4"/>
-      <c r="L152" s="4"/>
-      <c r="M152" s="4"/>
-      <c r="N152" s="4"/>
-      <c r="O152" s="4"/>
-    </row>
-    <row r="153" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="153" spans="1:10" ht="12.75" customHeight="1">
       <c r="A153" s="5">
         <v>40756</v>
       </c>
-      <c r="B153" s="22">
+      <c r="B153" s="16">
         <v>466</v>
       </c>
-      <c r="C153" s="23"/>
+      <c r="C153" s="17"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
@@ -3875,20 +3075,15 @@
       <c r="H153" s="4"/>
       <c r="I153" s="4"/>
       <c r="J153" s="4"/>
-      <c r="K153" s="4"/>
-      <c r="L153" s="4"/>
-      <c r="M153" s="4"/>
-      <c r="N153" s="4"/>
-      <c r="O153" s="4"/>
-    </row>
-    <row r="154" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="154" spans="1:10" ht="12.75" customHeight="1">
       <c r="A154" s="5">
         <v>40787</v>
       </c>
-      <c r="B154" s="22">
+      <c r="B154" s="16">
         <v>459</v>
       </c>
-      <c r="C154" s="23"/>
+      <c r="C154" s="17"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
@@ -3896,20 +3091,15 @@
       <c r="H154" s="4"/>
       <c r="I154" s="4"/>
       <c r="J154" s="4"/>
-      <c r="K154" s="4"/>
-      <c r="L154" s="4"/>
-      <c r="M154" s="4"/>
-      <c r="N154" s="4"/>
-      <c r="O154" s="4"/>
-    </row>
-    <row r="155" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="155" spans="1:10" ht="12.75" customHeight="1">
       <c r="A155" s="5">
         <v>40817</v>
       </c>
-      <c r="B155" s="22">
+      <c r="B155" s="16">
         <v>656</v>
       </c>
-      <c r="C155" s="23"/>
+      <c r="C155" s="17"/>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
@@ -3917,20 +3107,15 @@
       <c r="H155" s="4"/>
       <c r="I155" s="4"/>
       <c r="J155" s="4"/>
-      <c r="K155" s="4"/>
-      <c r="L155" s="4"/>
-      <c r="M155" s="4"/>
-      <c r="N155" s="4"/>
-      <c r="O155" s="4"/>
-    </row>
-    <row r="156" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="156" spans="1:10" ht="12.75" customHeight="1">
       <c r="A156" s="5">
         <v>40848</v>
       </c>
-      <c r="B156" s="22">
+      <c r="B156" s="16">
         <v>845</v>
       </c>
-      <c r="C156" s="23"/>
+      <c r="C156" s="17"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
@@ -3938,20 +3123,15 @@
       <c r="H156" s="4"/>
       <c r="I156" s="4"/>
       <c r="J156" s="4"/>
-      <c r="K156" s="4"/>
-      <c r="L156" s="4"/>
-      <c r="M156" s="4"/>
-      <c r="N156" s="4"/>
-      <c r="O156" s="4"/>
-    </row>
-    <row r="157" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A157" s="16">
+    </row>
+    <row r="157" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A157" s="10">
         <v>40878</v>
       </c>
-      <c r="B157" s="17">
+      <c r="B157" s="11">
         <v>735</v>
       </c>
-      <c r="C157" s="18"/>
+      <c r="C157" s="12"/>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
@@ -3959,20 +3139,15 @@
       <c r="H157" s="4"/>
       <c r="I157" s="4"/>
       <c r="J157" s="4"/>
-      <c r="K157" s="4"/>
-      <c r="L157" s="4"/>
-      <c r="M157" s="4"/>
-      <c r="N157" s="4"/>
-      <c r="O157" s="4"/>
-    </row>
-    <row r="158" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="158" spans="1:10" ht="12.75" customHeight="1">
       <c r="A158" s="5">
         <v>40909</v>
       </c>
-      <c r="B158" s="20">
+      <c r="B158" s="14">
         <v>535</v>
       </c>
-      <c r="C158" s="21"/>
+      <c r="C158" s="15"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
@@ -3980,20 +3155,15 @@
       <c r="H158" s="4"/>
       <c r="I158" s="4"/>
       <c r="J158" s="4"/>
-      <c r="K158" s="4"/>
-      <c r="L158" s="4"/>
-      <c r="M158" s="4"/>
-      <c r="N158" s="4"/>
-      <c r="O158" s="4"/>
-    </row>
-    <row r="159" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="159" spans="1:10" ht="12.75" customHeight="1">
       <c r="A159" s="5">
         <v>40940</v>
       </c>
-      <c r="B159" s="22">
+      <c r="B159" s="16">
         <v>571</v>
       </c>
-      <c r="C159" s="23"/>
+      <c r="C159" s="17"/>
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
@@ -4001,20 +3171,15 @@
       <c r="H159" s="4"/>
       <c r="I159" s="4"/>
       <c r="J159" s="4"/>
-      <c r="K159" s="4"/>
-      <c r="L159" s="4"/>
-      <c r="M159" s="4"/>
-      <c r="N159" s="4"/>
-      <c r="O159" s="4"/>
-    </row>
-    <row r="160" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="160" spans="1:10" ht="12.75" customHeight="1">
       <c r="A160" s="5">
         <v>40969</v>
       </c>
-      <c r="B160" s="22">
+      <c r="B160" s="16">
         <v>576</v>
       </c>
-      <c r="C160" s="23"/>
+      <c r="C160" s="17"/>
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
@@ -4022,20 +3187,15 @@
       <c r="H160" s="4"/>
       <c r="I160" s="4"/>
       <c r="J160" s="4"/>
-      <c r="K160" s="4"/>
-      <c r="L160" s="4"/>
-      <c r="M160" s="4"/>
-      <c r="N160" s="4"/>
-      <c r="O160" s="4"/>
-    </row>
-    <row r="161" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="161" spans="1:10" ht="12.75" customHeight="1">
       <c r="A161" s="5">
         <v>41000</v>
       </c>
-      <c r="B161" s="22">
+      <c r="B161" s="16">
         <v>580</v>
       </c>
-      <c r="C161" s="23"/>
+      <c r="C161" s="17"/>
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
@@ -4043,20 +3203,15 @@
       <c r="H161" s="4"/>
       <c r="I161" s="4"/>
       <c r="J161" s="4"/>
-      <c r="K161" s="4"/>
-      <c r="L161" s="4"/>
-      <c r="M161" s="4"/>
-      <c r="N161" s="4"/>
-      <c r="O161" s="4"/>
-    </row>
-    <row r="162" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="162" spans="1:10" ht="12.75" customHeight="1">
       <c r="A162" s="5">
         <v>41030</v>
       </c>
-      <c r="B162" s="22">
+      <c r="B162" s="16">
         <v>689</v>
       </c>
-      <c r="C162" s="23"/>
+      <c r="C162" s="17"/>
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
@@ -4064,20 +3219,15 @@
       <c r="H162" s="4"/>
       <c r="I162" s="4"/>
       <c r="J162" s="4"/>
-      <c r="K162" s="4"/>
-      <c r="L162" s="4"/>
-      <c r="M162" s="4"/>
-      <c r="N162" s="4"/>
-      <c r="O162" s="4"/>
-    </row>
-    <row r="163" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="163" spans="1:10" ht="12.75" customHeight="1">
       <c r="A163" s="5">
         <v>41061</v>
       </c>
-      <c r="B163" s="22">
+      <c r="B163" s="16">
         <v>714</v>
       </c>
-      <c r="C163" s="23"/>
+      <c r="C163" s="17"/>
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
@@ -4085,20 +3235,15 @@
       <c r="H163" s="4"/>
       <c r="I163" s="4"/>
       <c r="J163" s="4"/>
-      <c r="K163" s="4"/>
-      <c r="L163" s="4"/>
-      <c r="M163" s="4"/>
-      <c r="N163" s="4"/>
-      <c r="O163" s="4"/>
-    </row>
-    <row r="164" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="164" spans="1:10" ht="12.75" customHeight="1">
       <c r="A164" s="5">
         <v>41091</v>
       </c>
-      <c r="B164" s="22">
+      <c r="B164" s="16">
         <v>668</v>
       </c>
-      <c r="C164" s="23"/>
+      <c r="C164" s="17"/>
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
@@ -4106,20 +3251,15 @@
       <c r="H164" s="4"/>
       <c r="I164" s="4"/>
       <c r="J164" s="4"/>
-      <c r="K164" s="4"/>
-      <c r="L164" s="4"/>
-      <c r="M164" s="4"/>
-      <c r="N164" s="4"/>
-      <c r="O164" s="4"/>
-    </row>
-    <row r="165" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="165" spans="1:10" ht="12.75" customHeight="1">
       <c r="A165" s="5">
         <v>41122</v>
       </c>
-      <c r="B165" s="22">
+      <c r="B165" s="16">
         <v>565</v>
       </c>
-      <c r="C165" s="23"/>
+      <c r="C165" s="17"/>
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
@@ -4127,20 +3267,15 @@
       <c r="H165" s="4"/>
       <c r="I165" s="4"/>
       <c r="J165" s="4"/>
-      <c r="K165" s="4"/>
-      <c r="L165" s="4"/>
-      <c r="M165" s="4"/>
-      <c r="N165" s="4"/>
-      <c r="O165" s="4"/>
-    </row>
-    <row r="166" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="166" spans="1:10" ht="12.75" customHeight="1">
       <c r="A166" s="5">
         <v>41153</v>
       </c>
-      <c r="B166" s="22">
+      <c r="B166" s="16">
         <v>519</v>
       </c>
-      <c r="C166" s="23"/>
+      <c r="C166" s="17"/>
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
@@ -4148,20 +3283,15 @@
       <c r="H166" s="4"/>
       <c r="I166" s="4"/>
       <c r="J166" s="4"/>
-      <c r="K166" s="4"/>
-      <c r="L166" s="4"/>
-      <c r="M166" s="4"/>
-      <c r="N166" s="4"/>
-      <c r="O166" s="4"/>
-    </row>
-    <row r="167" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="167" spans="1:10" ht="12.75" customHeight="1">
       <c r="A167" s="5">
         <v>41183</v>
       </c>
-      <c r="B167" s="22">
+      <c r="B167" s="16">
         <v>653</v>
       </c>
-      <c r="C167" s="23"/>
+      <c r="C167" s="17"/>
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
@@ -4169,20 +3299,15 @@
       <c r="H167" s="4"/>
       <c r="I167" s="4"/>
       <c r="J167" s="4"/>
-      <c r="K167" s="4"/>
-      <c r="L167" s="4"/>
-      <c r="M167" s="4"/>
-      <c r="N167" s="4"/>
-      <c r="O167" s="4"/>
-    </row>
-    <row r="168" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="168" spans="1:10" ht="12.75" customHeight="1">
       <c r="A168" s="5">
         <v>41214</v>
       </c>
-      <c r="B168" s="22">
+      <c r="B168" s="16">
         <v>770</v>
       </c>
-      <c r="C168" s="23"/>
+      <c r="C168" s="17"/>
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
       <c r="F168" s="4"/>
@@ -4190,20 +3315,15 @@
       <c r="H168" s="4"/>
       <c r="I168" s="4"/>
       <c r="J168" s="4"/>
-      <c r="K168" s="4"/>
-      <c r="L168" s="4"/>
-      <c r="M168" s="4"/>
-      <c r="N168" s="4"/>
-      <c r="O168" s="4"/>
-    </row>
-    <row r="169" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A169" s="16">
+    </row>
+    <row r="169" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A169" s="10">
         <v>41244</v>
       </c>
-      <c r="B169" s="24">
+      <c r="B169" s="18">
         <v>904</v>
       </c>
-      <c r="C169" s="25"/>
+      <c r="C169" s="19"/>
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
@@ -4211,20 +3331,15 @@
       <c r="H169" s="4"/>
       <c r="I169" s="4"/>
       <c r="J169" s="4"/>
-      <c r="K169" s="4"/>
-      <c r="L169" s="4"/>
-      <c r="M169" s="4"/>
-      <c r="N169" s="4"/>
-      <c r="O169" s="4"/>
-    </row>
-    <row r="170" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="170" spans="1:10" ht="12.75" customHeight="1">
       <c r="A170" s="5">
         <v>41275</v>
       </c>
-      <c r="B170" s="20">
+      <c r="B170" s="14">
         <v>877</v>
       </c>
-      <c r="C170" s="21"/>
+      <c r="C170" s="15"/>
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
       <c r="F170" s="4"/>
@@ -4232,20 +3347,15 @@
       <c r="H170" s="4"/>
       <c r="I170" s="4"/>
       <c r="J170" s="4"/>
-      <c r="K170" s="4"/>
-      <c r="L170" s="4"/>
-      <c r="M170" s="4"/>
-      <c r="N170" s="4"/>
-      <c r="O170" s="4"/>
-    </row>
-    <row r="171" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="171" spans="1:10" ht="12.75" customHeight="1">
       <c r="A171" s="5">
         <v>41306</v>
       </c>
-      <c r="B171" s="22">
+      <c r="B171" s="16">
         <v>625</v>
       </c>
-      <c r="C171" s="23"/>
+      <c r="C171" s="17"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
       <c r="F171" s="4"/>
@@ -4253,20 +3363,15 @@
       <c r="H171" s="4"/>
       <c r="I171" s="4"/>
       <c r="J171" s="4"/>
-      <c r="K171" s="4"/>
-      <c r="L171" s="4"/>
-      <c r="M171" s="4"/>
-      <c r="N171" s="4"/>
-      <c r="O171" s="4"/>
-    </row>
-    <row r="172" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="172" spans="1:10" ht="12.75" customHeight="1">
       <c r="A172" s="5">
         <v>41334</v>
       </c>
-      <c r="B172" s="22">
+      <c r="B172" s="16">
         <v>617</v>
       </c>
-      <c r="C172" s="23"/>
+      <c r="C172" s="17"/>
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
       <c r="F172" s="4"/>
@@ -4274,20 +3379,15 @@
       <c r="H172" s="4"/>
       <c r="I172" s="4"/>
       <c r="J172" s="4"/>
-      <c r="K172" s="4"/>
-      <c r="L172" s="4"/>
-      <c r="M172" s="4"/>
-      <c r="N172" s="4"/>
-      <c r="O172" s="4"/>
-    </row>
-    <row r="173" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="173" spans="1:10" ht="12.75" customHeight="1">
       <c r="A173" s="5">
         <v>41365</v>
       </c>
-      <c r="B173" s="22">
+      <c r="B173" s="16">
         <v>970</v>
       </c>
-      <c r="C173" s="26"/>
+      <c r="C173" s="20"/>
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
       <c r="F173" s="4"/>
@@ -4295,20 +3395,15 @@
       <c r="H173" s="4"/>
       <c r="I173" s="4"/>
       <c r="J173" s="4"/>
-      <c r="K173" s="4"/>
-      <c r="L173" s="4"/>
-      <c r="M173" s="4"/>
-      <c r="N173" s="4"/>
-      <c r="O173" s="4"/>
-    </row>
-    <row r="174" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="174" spans="1:10" ht="12.75" customHeight="1">
       <c r="A174" s="5">
         <v>41395</v>
       </c>
-      <c r="B174" s="22">
+      <c r="B174" s="16">
         <v>937</v>
       </c>
-      <c r="C174" s="26"/>
+      <c r="C174" s="20"/>
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
       <c r="F174" s="4"/>
@@ -4316,20 +3411,15 @@
       <c r="H174" s="4"/>
       <c r="I174" s="4"/>
       <c r="J174" s="4"/>
-      <c r="K174" s="4"/>
-      <c r="L174" s="4"/>
-      <c r="M174" s="4"/>
-      <c r="N174" s="4"/>
-      <c r="O174" s="4"/>
-    </row>
-    <row r="175" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="175" spans="1:10" ht="12.75" customHeight="1">
       <c r="A175" s="5">
         <v>41426</v>
       </c>
-      <c r="B175" s="22">
+      <c r="B175" s="16">
         <v>913</v>
       </c>
-      <c r="C175" s="26"/>
+      <c r="C175" s="20"/>
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
       <c r="F175" s="4"/>
@@ -4337,20 +3427,15 @@
       <c r="H175" s="4"/>
       <c r="I175" s="4"/>
       <c r="J175" s="4"/>
-      <c r="K175" s="4"/>
-      <c r="L175" s="4"/>
-      <c r="M175" s="4"/>
-      <c r="N175" s="4"/>
-      <c r="O175" s="4"/>
-    </row>
-    <row r="176" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="176" spans="1:10" ht="12.75" customHeight="1">
       <c r="A176" s="5">
         <v>41456</v>
       </c>
       <c r="B176" s="8">
         <v>1031</v>
       </c>
-      <c r="C176" s="26"/>
+      <c r="C176" s="20"/>
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
       <c r="F176" s="4"/>
@@ -4358,20 +3443,15 @@
       <c r="H176" s="4"/>
       <c r="I176" s="4"/>
       <c r="J176" s="4"/>
-      <c r="K176" s="4"/>
-      <c r="L176" s="4"/>
-      <c r="M176" s="4"/>
-      <c r="N176" s="4"/>
-      <c r="O176" s="4"/>
-    </row>
-    <row r="177" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="177" spans="1:10" ht="12.75" customHeight="1">
       <c r="A177" s="5">
         <v>41487</v>
       </c>
       <c r="B177" s="8">
         <v>770</v>
       </c>
-      <c r="C177" s="26"/>
+      <c r="C177" s="20"/>
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
       <c r="F177" s="4"/>
@@ -4379,20 +3459,15 @@
       <c r="H177" s="4"/>
       <c r="I177" s="4"/>
       <c r="J177" s="4"/>
-      <c r="K177" s="4"/>
-      <c r="L177" s="4"/>
-      <c r="M177" s="4"/>
-      <c r="N177" s="4"/>
-      <c r="O177" s="4"/>
-    </row>
-    <row r="178" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="178" spans="1:10" ht="12.75" customHeight="1">
       <c r="A178" s="5">
         <v>41518</v>
       </c>
       <c r="B178" s="8">
         <v>860</v>
       </c>
-      <c r="C178" s="26"/>
+      <c r="C178" s="20"/>
       <c r="D178" s="4"/>
       <c r="E178" s="4"/>
       <c r="F178" s="4"/>
@@ -4400,20 +3475,15 @@
       <c r="H178" s="4"/>
       <c r="I178" s="4"/>
       <c r="J178" s="4"/>
-      <c r="K178" s="4"/>
-      <c r="L178" s="4"/>
-      <c r="M178" s="4"/>
-      <c r="N178" s="4"/>
-      <c r="O178" s="4"/>
-    </row>
-    <row r="179" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="179" spans="1:10" ht="12.75" customHeight="1">
       <c r="A179" s="5">
         <v>41548</v>
       </c>
       <c r="B179" s="8">
         <v>1058</v>
       </c>
-      <c r="C179" s="26"/>
+      <c r="C179" s="20"/>
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
       <c r="F179" s="4"/>
@@ -4421,20 +3491,15 @@
       <c r="H179" s="4"/>
       <c r="I179" s="4"/>
       <c r="J179" s="4"/>
-      <c r="K179" s="4"/>
-      <c r="L179" s="4"/>
-      <c r="M179" s="4"/>
-      <c r="N179" s="4"/>
-      <c r="O179" s="4"/>
-    </row>
-    <row r="180" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="180" spans="1:10" ht="12.75" customHeight="1">
       <c r="A180" s="5">
         <v>41579</v>
       </c>
       <c r="B180" s="8">
         <v>1113</v>
       </c>
-      <c r="C180" s="26"/>
+      <c r="C180" s="20"/>
       <c r="D180" s="4"/>
       <c r="E180" s="4"/>
       <c r="F180" s="4"/>
@@ -4442,20 +3507,15 @@
       <c r="H180" s="4"/>
       <c r="I180" s="4"/>
       <c r="J180" s="4"/>
-      <c r="K180" s="4"/>
-      <c r="L180" s="4"/>
-      <c r="M180" s="4"/>
-      <c r="N180" s="4"/>
-      <c r="O180" s="4"/>
-    </row>
-    <row r="181" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A181" s="16">
+    </row>
+    <row r="181" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A181" s="10">
         <v>41609</v>
       </c>
-      <c r="B181" s="17">
+      <c r="B181" s="11">
         <v>1115</v>
       </c>
-      <c r="C181" s="27"/>
+      <c r="C181" s="21"/>
       <c r="D181" s="4"/>
       <c r="E181" s="4"/>
       <c r="F181" s="4"/>
@@ -4463,20 +3523,15 @@
       <c r="H181" s="4"/>
       <c r="I181" s="4"/>
       <c r="J181" s="4"/>
-      <c r="K181" s="4"/>
-      <c r="L181" s="4"/>
-      <c r="M181" s="4"/>
-      <c r="N181" s="4"/>
-      <c r="O181" s="4"/>
-    </row>
-    <row r="182" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="182" spans="1:10" ht="12.75" customHeight="1">
       <c r="A182" s="5">
         <v>41640</v>
       </c>
-      <c r="B182" s="20">
+      <c r="B182" s="14">
         <v>1011</v>
       </c>
-      <c r="C182" s="21"/>
+      <c r="C182" s="15"/>
       <c r="D182" s="4"/>
       <c r="E182" s="4"/>
       <c r="F182" s="4"/>
@@ -4484,20 +3539,15 @@
       <c r="H182" s="4"/>
       <c r="I182" s="4"/>
       <c r="J182" s="4"/>
-      <c r="K182" s="4"/>
-      <c r="L182" s="4"/>
-      <c r="M182" s="4"/>
-      <c r="N182" s="4"/>
-      <c r="O182" s="4"/>
-    </row>
-    <row r="183" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="183" spans="1:10" ht="12.75" customHeight="1">
       <c r="A183" s="5">
         <v>41671</v>
       </c>
       <c r="B183" s="8">
         <v>874</v>
       </c>
-      <c r="C183" s="26"/>
+      <c r="C183" s="20"/>
       <c r="D183" s="4"/>
       <c r="E183" s="4"/>
       <c r="F183" s="4"/>
@@ -4505,20 +3555,15 @@
       <c r="H183" s="4"/>
       <c r="I183" s="4"/>
       <c r="J183" s="4"/>
-      <c r="K183" s="4"/>
-      <c r="L183" s="4"/>
-      <c r="M183" s="4"/>
-      <c r="N183" s="4"/>
-      <c r="O183" s="4"/>
-    </row>
-    <row r="184" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="184" spans="1:10" ht="12.75" customHeight="1">
       <c r="A184" s="5">
         <v>41699</v>
       </c>
       <c r="B184" s="8">
         <v>828</v>
       </c>
-      <c r="C184" s="26"/>
+      <c r="C184" s="20"/>
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
       <c r="F184" s="4"/>
@@ -4526,20 +3571,15 @@
       <c r="H184" s="4"/>
       <c r="I184" s="4"/>
       <c r="J184" s="4"/>
-      <c r="K184" s="4"/>
-      <c r="L184" s="4"/>
-      <c r="M184" s="4"/>
-      <c r="N184" s="4"/>
-      <c r="O184" s="4"/>
-    </row>
-    <row r="185" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="185" spans="1:10" ht="12.75" customHeight="1">
       <c r="A185" s="5">
         <v>41730</v>
       </c>
       <c r="B185" s="8">
         <v>832</v>
       </c>
-      <c r="C185" s="26"/>
+      <c r="C185" s="20"/>
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
       <c r="F185" s="4"/>
@@ -4547,20 +3587,15 @@
       <c r="H185" s="4"/>
       <c r="I185" s="4"/>
       <c r="J185" s="4"/>
-      <c r="K185" s="4"/>
-      <c r="L185" s="4"/>
-      <c r="M185" s="4"/>
-      <c r="N185" s="4"/>
-      <c r="O185" s="4"/>
-    </row>
-    <row r="186" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="186" spans="1:10" ht="12.75" customHeight="1">
       <c r="A186" s="5">
         <v>41760</v>
       </c>
       <c r="B186" s="8">
         <v>1050</v>
       </c>
-      <c r="C186" s="26"/>
+      <c r="C186" s="20"/>
       <c r="D186" s="4"/>
       <c r="E186" s="4"/>
       <c r="F186" s="4"/>
@@ -4568,20 +3603,15 @@
       <c r="H186" s="4"/>
       <c r="I186" s="4"/>
       <c r="J186" s="4"/>
-      <c r="K186" s="4"/>
-      <c r="L186" s="4"/>
-      <c r="M186" s="4"/>
-      <c r="N186" s="4"/>
-      <c r="O186" s="4"/>
-    </row>
-    <row r="187" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="187" spans="1:10" ht="12.75" customHeight="1">
       <c r="A187" s="5">
         <v>41791</v>
       </c>
       <c r="B187" s="8">
         <v>944</v>
       </c>
-      <c r="C187" s="26"/>
+      <c r="C187" s="20"/>
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
       <c r="F187" s="4"/>
@@ -4589,20 +3619,15 @@
       <c r="H187" s="4"/>
       <c r="I187" s="4"/>
       <c r="J187" s="4"/>
-      <c r="K187" s="4"/>
-      <c r="L187" s="4"/>
-      <c r="M187" s="4"/>
-      <c r="N187" s="4"/>
-      <c r="O187" s="4"/>
-    </row>
-    <row r="188" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="188" spans="1:10" ht="12.75" customHeight="1">
       <c r="A188" s="5">
         <v>41821</v>
       </c>
       <c r="B188" s="8">
         <v>1236</v>
       </c>
-      <c r="C188" s="26"/>
+      <c r="C188" s="20"/>
       <c r="D188" s="4"/>
       <c r="E188" s="4"/>
       <c r="F188" s="4"/>
@@ -4610,20 +3635,15 @@
       <c r="H188" s="4"/>
       <c r="I188" s="4"/>
       <c r="J188" s="4"/>
-      <c r="K188" s="4"/>
-      <c r="L188" s="4"/>
-      <c r="M188" s="4"/>
-      <c r="N188" s="4"/>
-      <c r="O188" s="4"/>
-    </row>
-    <row r="189" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="189" spans="1:10" ht="12.75" customHeight="1">
       <c r="A189" s="5">
         <v>41852</v>
       </c>
       <c r="B189" s="8">
         <v>1151</v>
       </c>
-      <c r="C189" s="26"/>
+      <c r="C189" s="20"/>
       <c r="D189" s="4"/>
       <c r="E189" s="4"/>
       <c r="F189" s="4"/>
@@ -4631,20 +3651,15 @@
       <c r="H189" s="4"/>
       <c r="I189" s="4"/>
       <c r="J189" s="4"/>
-      <c r="K189" s="4"/>
-      <c r="L189" s="4"/>
-      <c r="M189" s="4"/>
-      <c r="N189" s="4"/>
-      <c r="O189" s="4"/>
-    </row>
-    <row r="190" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="190" spans="1:10" ht="12.75" customHeight="1">
       <c r="A190" s="5">
         <v>41883</v>
       </c>
       <c r="B190" s="8">
         <v>912</v>
       </c>
-      <c r="C190" s="26"/>
+      <c r="C190" s="20"/>
       <c r="D190" s="4"/>
       <c r="E190" s="4"/>
       <c r="F190" s="4"/>
@@ -4652,20 +3667,15 @@
       <c r="H190" s="4"/>
       <c r="I190" s="4"/>
       <c r="J190" s="4"/>
-      <c r="K190" s="4"/>
-      <c r="L190" s="4"/>
-      <c r="M190" s="4"/>
-      <c r="N190" s="4"/>
-      <c r="O190" s="4"/>
-    </row>
-    <row r="191" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="191" spans="1:10" ht="12.75" customHeight="1">
       <c r="A191" s="5">
         <v>41913</v>
       </c>
       <c r="B191" s="8">
         <v>1101</v>
       </c>
-      <c r="C191" s="26"/>
+      <c r="C191" s="20"/>
       <c r="D191" s="4"/>
       <c r="E191" s="4"/>
       <c r="F191" s="4"/>
@@ -4673,20 +3683,15 @@
       <c r="H191" s="4"/>
       <c r="I191" s="4"/>
       <c r="J191" s="4"/>
-      <c r="K191" s="4"/>
-      <c r="L191" s="4"/>
-      <c r="M191" s="4"/>
-      <c r="N191" s="4"/>
-      <c r="O191" s="4"/>
-    </row>
-    <row r="192" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="192" spans="1:10" ht="12.75" customHeight="1">
       <c r="A192" s="5">
         <v>41944</v>
       </c>
       <c r="B192" s="8">
         <v>1115</v>
       </c>
-      <c r="C192" s="26"/>
+      <c r="C192" s="20"/>
       <c r="D192" s="4"/>
       <c r="E192" s="4"/>
       <c r="F192" s="4"/>
@@ -4694,20 +3699,15 @@
       <c r="H192" s="4"/>
       <c r="I192" s="4"/>
       <c r="J192" s="4"/>
-      <c r="K192" s="4"/>
-      <c r="L192" s="4"/>
-      <c r="M192" s="4"/>
-      <c r="N192" s="4"/>
-      <c r="O192" s="4"/>
-    </row>
-    <row r="193" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A193" s="16">
+    </row>
+    <row r="193" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A193" s="10">
         <v>41974</v>
       </c>
-      <c r="B193" s="17">
+      <c r="B193" s="11">
         <v>1086</v>
       </c>
-      <c r="C193" s="27"/>
+      <c r="C193" s="21"/>
       <c r="D193" s="4"/>
       <c r="E193" s="4"/>
       <c r="F193" s="4"/>
@@ -4715,20 +3715,15 @@
       <c r="H193" s="4"/>
       <c r="I193" s="4"/>
       <c r="J193" s="4"/>
-      <c r="K193" s="4"/>
-      <c r="L193" s="4"/>
-      <c r="M193" s="4"/>
-      <c r="N193" s="4"/>
-      <c r="O193" s="4"/>
-    </row>
-    <row r="194" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="194" spans="1:10" ht="12.75" customHeight="1">
       <c r="A194" s="5">
         <v>42005</v>
       </c>
-      <c r="B194" s="20">
+      <c r="B194" s="14">
         <v>1088</v>
       </c>
-      <c r="C194" s="21"/>
+      <c r="C194" s="15"/>
       <c r="D194" s="4"/>
       <c r="E194" s="4"/>
       <c r="F194" s="4"/>
@@ -4736,20 +3731,15 @@
       <c r="H194" s="4"/>
       <c r="I194" s="4"/>
       <c r="J194" s="4"/>
-      <c r="K194" s="4"/>
-      <c r="L194" s="4"/>
-      <c r="M194" s="4"/>
-      <c r="N194" s="4"/>
-      <c r="O194" s="4"/>
-    </row>
-    <row r="195" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="195" spans="1:10" ht="12.75" customHeight="1">
       <c r="A195" s="5">
         <v>42036</v>
       </c>
       <c r="B195" s="8">
         <v>1029</v>
       </c>
-      <c r="C195" s="26"/>
+      <c r="C195" s="20"/>
       <c r="D195" s="4"/>
       <c r="E195" s="4"/>
       <c r="F195" s="4"/>
@@ -4757,20 +3747,15 @@
       <c r="H195" s="4"/>
       <c r="I195" s="4"/>
       <c r="J195" s="4"/>
-      <c r="K195" s="4"/>
-      <c r="L195" s="4"/>
-      <c r="M195" s="4"/>
-      <c r="N195" s="4"/>
-      <c r="O195" s="4"/>
-    </row>
-    <row r="196" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="196" spans="1:10" ht="12.75" customHeight="1">
       <c r="A196" s="5">
         <v>42064</v>
       </c>
       <c r="B196" s="8">
         <v>800</v>
       </c>
-      <c r="C196" s="26"/>
+      <c r="C196" s="20"/>
       <c r="D196" s="4"/>
       <c r="E196" s="4"/>
       <c r="F196" s="4"/>
@@ -4778,20 +3763,15 @@
       <c r="H196" s="4"/>
       <c r="I196" s="4"/>
       <c r="J196" s="4"/>
-      <c r="K196" s="4"/>
-      <c r="L196" s="4"/>
-      <c r="M196" s="4"/>
-      <c r="N196" s="4"/>
-      <c r="O196" s="4"/>
-    </row>
-    <row r="197" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="197" spans="1:10" ht="12.75" customHeight="1">
       <c r="A197" s="5">
         <v>42095</v>
       </c>
       <c r="B197" s="8">
         <v>924</v>
       </c>
-      <c r="C197" s="26"/>
+      <c r="C197" s="20"/>
       <c r="D197" s="4"/>
       <c r="E197" s="4"/>
       <c r="F197" s="4"/>
@@ -4799,20 +3779,15 @@
       <c r="H197" s="4"/>
       <c r="I197" s="4"/>
       <c r="J197" s="4"/>
-      <c r="K197" s="4"/>
-      <c r="L197" s="4"/>
-      <c r="M197" s="4"/>
-      <c r="N197" s="4"/>
-      <c r="O197" s="4"/>
-    </row>
-    <row r="198" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="198" spans="1:10" ht="12.75" customHeight="1">
       <c r="A198" s="5">
         <v>42125</v>
       </c>
       <c r="B198" s="8">
         <v>1165</v>
       </c>
-      <c r="C198" s="26"/>
+      <c r="C198" s="20"/>
       <c r="D198" s="4"/>
       <c r="E198" s="4"/>
       <c r="F198" s="4"/>
@@ -4820,20 +3795,15 @@
       <c r="H198" s="4"/>
       <c r="I198" s="4"/>
       <c r="J198" s="4"/>
-      <c r="K198" s="4"/>
-      <c r="L198" s="4"/>
-      <c r="M198" s="4"/>
-      <c r="N198" s="4"/>
-      <c r="O198" s="4"/>
-    </row>
-    <row r="199" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="199" spans="1:10" ht="12.75" customHeight="1">
       <c r="A199" s="5">
         <v>42156</v>
       </c>
       <c r="B199" s="8">
         <v>1240</v>
       </c>
-      <c r="C199" s="26"/>
+      <c r="C199" s="20"/>
       <c r="D199" s="4"/>
       <c r="E199" s="4"/>
       <c r="F199" s="4"/>
@@ -4841,20 +3811,15 @@
       <c r="H199" s="4"/>
       <c r="I199" s="4"/>
       <c r="J199" s="4"/>
-      <c r="K199" s="4"/>
-      <c r="L199" s="4"/>
-      <c r="M199" s="4"/>
-      <c r="N199" s="4"/>
-      <c r="O199" s="4"/>
-    </row>
-    <row r="200" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="200" spans="1:10" ht="12.75" customHeight="1">
       <c r="A200" s="5">
         <v>42186</v>
       </c>
       <c r="B200" s="8">
         <v>1463</v>
       </c>
-      <c r="C200" s="26"/>
+      <c r="C200" s="20"/>
       <c r="D200" s="4"/>
       <c r="E200" s="4"/>
       <c r="F200" s="4"/>
@@ -4862,20 +3827,15 @@
       <c r="H200" s="4"/>
       <c r="I200" s="4"/>
       <c r="J200" s="4"/>
-      <c r="K200" s="4"/>
-      <c r="L200" s="4"/>
-      <c r="M200" s="4"/>
-      <c r="N200" s="4"/>
-      <c r="O200" s="4"/>
-    </row>
-    <row r="201" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="201" spans="1:10" ht="12.75" customHeight="1">
       <c r="A201" s="5">
         <v>42217</v>
       </c>
       <c r="B201" s="8">
         <v>1264</v>
       </c>
-      <c r="C201" s="26"/>
+      <c r="C201" s="20"/>
       <c r="D201" s="4"/>
       <c r="E201" s="4"/>
       <c r="F201" s="4"/>
@@ -4883,20 +3843,15 @@
       <c r="H201" s="4"/>
       <c r="I201" s="4"/>
       <c r="J201" s="4"/>
-      <c r="K201" s="4"/>
-      <c r="L201" s="4"/>
-      <c r="M201" s="4"/>
-      <c r="N201" s="4"/>
-      <c r="O201" s="4"/>
-    </row>
-    <row r="202" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="202" spans="1:10" ht="12.75" customHeight="1">
       <c r="A202" s="5">
         <v>42248</v>
       </c>
       <c r="B202" s="8">
         <v>1058</v>
       </c>
-      <c r="C202" s="26"/>
+      <c r="C202" s="20"/>
       <c r="D202" s="4"/>
       <c r="E202" s="4"/>
       <c r="F202" s="4"/>
@@ -4904,20 +3859,15 @@
       <c r="H202" s="4"/>
       <c r="I202" s="4"/>
       <c r="J202" s="4"/>
-      <c r="K202" s="4"/>
-      <c r="L202" s="4"/>
-      <c r="M202" s="4"/>
-      <c r="N202" s="4"/>
-      <c r="O202" s="4"/>
-    </row>
-    <row r="203" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="203" spans="1:10" ht="12.75" customHeight="1">
       <c r="A203" s="5">
         <v>42278</v>
       </c>
       <c r="B203" s="8">
         <v>1368</v>
       </c>
-      <c r="C203" s="26"/>
+      <c r="C203" s="20"/>
       <c r="D203" s="4"/>
       <c r="E203" s="4"/>
       <c r="F203" s="4"/>
@@ -4925,20 +3875,15 @@
       <c r="H203" s="4"/>
       <c r="I203" s="4"/>
       <c r="J203" s="4"/>
-      <c r="K203" s="4"/>
-      <c r="L203" s="4"/>
-      <c r="M203" s="4"/>
-      <c r="N203" s="4"/>
-      <c r="O203" s="4"/>
-    </row>
-    <row r="204" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="204" spans="1:10" ht="12.75" customHeight="1">
       <c r="A204" s="5">
         <v>42309</v>
       </c>
       <c r="B204" s="8">
         <v>1322</v>
       </c>
-      <c r="C204" s="26"/>
+      <c r="C204" s="20"/>
       <c r="D204" s="4"/>
       <c r="E204" s="4"/>
       <c r="F204" s="4"/>
@@ -4946,20 +3891,15 @@
       <c r="H204" s="4"/>
       <c r="I204" s="4"/>
       <c r="J204" s="4"/>
-      <c r="K204" s="4"/>
-      <c r="L204" s="4"/>
-      <c r="M204" s="4"/>
-      <c r="N204" s="4"/>
-      <c r="O204" s="4"/>
-    </row>
-    <row r="205" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A205" s="16">
+    </row>
+    <row r="205" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A205" s="10">
         <v>42339</v>
       </c>
-      <c r="B205" s="17">
+      <c r="B205" s="11">
         <v>1454</v>
       </c>
-      <c r="C205" s="27"/>
+      <c r="C205" s="21"/>
       <c r="D205" s="4"/>
       <c r="E205" s="4"/>
       <c r="F205" s="4"/>
@@ -4967,20 +3907,15 @@
       <c r="H205" s="4"/>
       <c r="I205" s="4"/>
       <c r="J205" s="4"/>
-      <c r="K205" s="4"/>
-      <c r="L205" s="4"/>
-      <c r="M205" s="4"/>
-      <c r="N205" s="4"/>
-      <c r="O205" s="4"/>
-    </row>
-    <row r="206" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="206" spans="1:10" ht="12.75" customHeight="1">
       <c r="A206" s="5">
         <v>42370</v>
       </c>
       <c r="B206" s="8">
         <v>1136</v>
       </c>
-      <c r="C206" s="26"/>
+      <c r="C206" s="20"/>
       <c r="D206" s="4"/>
       <c r="E206" s="4"/>
       <c r="F206" s="4"/>
@@ -4988,20 +3923,15 @@
       <c r="H206" s="4"/>
       <c r="I206" s="4"/>
       <c r="J206" s="4"/>
-      <c r="K206" s="4"/>
-      <c r="L206" s="4"/>
-      <c r="M206" s="4"/>
-      <c r="N206" s="4"/>
-      <c r="O206" s="4"/>
-    </row>
-    <row r="207" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="207" spans="1:10" ht="12.75" customHeight="1">
       <c r="A207" s="5">
         <v>42401</v>
       </c>
       <c r="B207" s="8">
         <v>1096</v>
       </c>
-      <c r="C207" s="26"/>
+      <c r="C207" s="20"/>
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
       <c r="F207" s="4"/>
@@ -5009,20 +3939,15 @@
       <c r="H207" s="4"/>
       <c r="I207" s="4"/>
       <c r="J207" s="4"/>
-      <c r="K207" s="4"/>
-      <c r="L207" s="4"/>
-      <c r="M207" s="4"/>
-      <c r="N207" s="4"/>
-      <c r="O207" s="4"/>
-    </row>
-    <row r="208" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="208" spans="1:10" ht="12.75" customHeight="1">
       <c r="A208" s="5">
         <v>42430</v>
       </c>
       <c r="B208" s="8">
         <v>944</v>
       </c>
-      <c r="C208" s="26"/>
+      <c r="C208" s="20"/>
       <c r="D208" s="4"/>
       <c r="E208" s="4"/>
       <c r="F208" s="4"/>
@@ -5030,20 +3955,15 @@
       <c r="H208" s="4"/>
       <c r="I208" s="4"/>
       <c r="J208" s="4"/>
-      <c r="K208" s="4"/>
-      <c r="L208" s="4"/>
-      <c r="M208" s="4"/>
-      <c r="N208" s="4"/>
-      <c r="O208" s="4"/>
-    </row>
-    <row r="209" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="209" spans="1:10" ht="12.75" customHeight="1">
       <c r="A209" s="5">
         <v>42461</v>
       </c>
       <c r="B209" s="8">
         <v>1043</v>
       </c>
-      <c r="C209" s="26"/>
+      <c r="C209" s="20"/>
       <c r="D209" s="4"/>
       <c r="E209" s="4"/>
       <c r="F209" s="4"/>
@@ -5051,20 +3971,15 @@
       <c r="H209" s="4"/>
       <c r="I209" s="4"/>
       <c r="J209" s="4"/>
-      <c r="K209" s="4"/>
-      <c r="L209" s="4"/>
-      <c r="M209" s="4"/>
-      <c r="N209" s="4"/>
-      <c r="O209" s="4"/>
-    </row>
-    <row r="210" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="210" spans="1:10" ht="12.75" customHeight="1">
       <c r="A210" s="5">
         <v>42491</v>
       </c>
       <c r="B210" s="8">
         <v>1163</v>
       </c>
-      <c r="C210" s="26"/>
+      <c r="C210" s="20"/>
       <c r="D210" s="4"/>
       <c r="E210" s="4"/>
       <c r="F210" s="4"/>
@@ -5072,20 +3987,15 @@
       <c r="H210" s="4"/>
       <c r="I210" s="4"/>
       <c r="J210" s="4"/>
-      <c r="K210" s="4"/>
-      <c r="L210" s="4"/>
-      <c r="M210" s="4"/>
-      <c r="N210" s="4"/>
-      <c r="O210" s="4"/>
-    </row>
-    <row r="211" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="211" spans="1:10" ht="12.75" customHeight="1">
       <c r="A211" s="5">
         <v>42522</v>
       </c>
       <c r="B211" s="8">
         <v>1158</v>
       </c>
-      <c r="C211" s="26"/>
+      <c r="C211" s="20"/>
       <c r="D211" s="4"/>
       <c r="E211" s="4"/>
       <c r="F211" s="4"/>
@@ -5093,20 +4003,15 @@
       <c r="H211" s="4"/>
       <c r="I211" s="4"/>
       <c r="J211" s="4"/>
-      <c r="K211" s="4"/>
-      <c r="L211" s="4"/>
-      <c r="M211" s="4"/>
-      <c r="N211" s="4"/>
-      <c r="O211" s="4"/>
-    </row>
-    <row r="212" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="212" spans="1:10" ht="12.75" customHeight="1">
       <c r="A212" s="5">
         <v>42552</v>
       </c>
       <c r="B212" s="8">
         <v>1102</v>
       </c>
-      <c r="C212" s="26"/>
+      <c r="C212" s="20"/>
       <c r="D212" s="4"/>
       <c r="E212" s="4"/>
       <c r="F212" s="4"/>
@@ -5114,20 +4019,15 @@
       <c r="H212" s="4"/>
       <c r="I212" s="4"/>
       <c r="J212" s="4"/>
-      <c r="K212" s="4"/>
-      <c r="L212" s="4"/>
-      <c r="M212" s="4"/>
-      <c r="N212" s="4"/>
-      <c r="O212" s="4"/>
-    </row>
-    <row r="213" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="213" spans="1:10" ht="12.75" customHeight="1">
       <c r="A213" s="5">
         <v>42583</v>
       </c>
       <c r="B213" s="8">
         <v>1189</v>
       </c>
-      <c r="C213" s="26"/>
+      <c r="C213" s="20"/>
       <c r="D213" s="4"/>
       <c r="E213" s="4"/>
       <c r="F213" s="4"/>
@@ -5135,20 +4035,15 @@
       <c r="H213" s="4"/>
       <c r="I213" s="4"/>
       <c r="J213" s="4"/>
-      <c r="K213" s="4"/>
-      <c r="L213" s="4"/>
-      <c r="M213" s="4"/>
-      <c r="N213" s="4"/>
-      <c r="O213" s="4"/>
-    </row>
-    <row r="214" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="214" spans="1:10" ht="12.75" customHeight="1">
       <c r="A214" s="5">
         <v>42614</v>
       </c>
       <c r="B214" s="8">
         <v>1034</v>
       </c>
-      <c r="C214" s="26"/>
+      <c r="C214" s="20"/>
       <c r="D214" s="4"/>
       <c r="E214" s="4"/>
       <c r="F214" s="4"/>
@@ -5156,20 +4051,15 @@
       <c r="H214" s="4"/>
       <c r="I214" s="4"/>
       <c r="J214" s="4"/>
-      <c r="K214" s="4"/>
-      <c r="L214" s="4"/>
-      <c r="M214" s="4"/>
-      <c r="N214" s="4"/>
-      <c r="O214" s="4"/>
-    </row>
-    <row r="215" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="215" spans="1:10" ht="12.75" customHeight="1">
       <c r="A215" s="5">
         <v>42644</v>
       </c>
       <c r="B215" s="8">
         <v>1395</v>
       </c>
-      <c r="C215" s="26"/>
+      <c r="C215" s="20"/>
       <c r="D215" s="4"/>
       <c r="E215" s="4"/>
       <c r="F215" s="4"/>
@@ -5177,20 +4067,15 @@
       <c r="H215" s="4"/>
       <c r="I215" s="4"/>
       <c r="J215" s="4"/>
-      <c r="K215" s="4"/>
-      <c r="L215" s="4"/>
-      <c r="M215" s="4"/>
-      <c r="N215" s="4"/>
-      <c r="O215" s="4"/>
-    </row>
-    <row r="216" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="216" spans="1:10" ht="12.75" customHeight="1">
       <c r="A216" s="5">
         <v>42675</v>
       </c>
       <c r="B216" s="8">
         <v>1653</v>
       </c>
-      <c r="C216" s="26"/>
+      <c r="C216" s="20"/>
       <c r="D216" s="4"/>
       <c r="E216" s="4"/>
       <c r="F216" s="4"/>
@@ -5198,20 +4083,15 @@
       <c r="H216" s="4"/>
       <c r="I216" s="4"/>
       <c r="J216" s="4"/>
-      <c r="K216" s="4"/>
-      <c r="L216" s="4"/>
-      <c r="M216" s="4"/>
-      <c r="N216" s="4"/>
-      <c r="O216" s="4"/>
-    </row>
-    <row r="217" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A217" s="16">
+    </row>
+    <row r="217" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A217" s="10">
         <v>42705</v>
       </c>
-      <c r="B217" s="17">
+      <c r="B217" s="11">
         <v>1319</v>
       </c>
-      <c r="C217" s="27"/>
+      <c r="C217" s="21"/>
       <c r="D217" s="4"/>
       <c r="E217" s="4"/>
       <c r="F217" s="4"/>
@@ -5219,20 +4099,15 @@
       <c r="H217" s="4"/>
       <c r="I217" s="4"/>
       <c r="J217" s="4"/>
-      <c r="K217" s="4"/>
-      <c r="L217" s="4"/>
-      <c r="M217" s="4"/>
-      <c r="N217" s="4"/>
-      <c r="O217" s="4"/>
-    </row>
-    <row r="218" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="218" spans="1:10" ht="12.75" customHeight="1">
       <c r="A218" s="5">
         <v>42736</v>
       </c>
       <c r="B218" s="8">
         <v>1275</v>
       </c>
-      <c r="C218" s="26"/>
+      <c r="C218" s="20"/>
       <c r="D218" s="4"/>
       <c r="E218" s="4"/>
       <c r="F218" s="4"/>
@@ -5240,20 +4115,15 @@
       <c r="H218" s="4"/>
       <c r="I218" s="4"/>
       <c r="J218" s="4"/>
-      <c r="K218" s="4"/>
-      <c r="L218" s="4"/>
-      <c r="M218" s="4"/>
-      <c r="N218" s="4"/>
-      <c r="O218" s="4"/>
-    </row>
-    <row r="219" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="219" spans="1:10" ht="12.75" customHeight="1">
       <c r="A219" s="5">
         <v>42767</v>
       </c>
       <c r="B219" s="8">
         <v>1293</v>
       </c>
-      <c r="C219" s="26"/>
+      <c r="C219" s="20"/>
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
       <c r="F219" s="4"/>
@@ -5261,20 +4131,15 @@
       <c r="H219" s="4"/>
       <c r="I219" s="4"/>
       <c r="J219" s="4"/>
-      <c r="K219" s="4"/>
-      <c r="L219" s="4"/>
-      <c r="M219" s="4"/>
-      <c r="N219" s="4"/>
-      <c r="O219" s="4"/>
-    </row>
-    <row r="220" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="220" spans="1:10" ht="12.75" customHeight="1">
       <c r="A220" s="5">
         <v>42795</v>
       </c>
       <c r="B220" s="8">
         <v>1020</v>
       </c>
-      <c r="C220" s="26"/>
+      <c r="C220" s="20"/>
       <c r="D220" s="4"/>
       <c r="E220" s="4"/>
       <c r="F220" s="4"/>
@@ -5282,20 +4147,15 @@
       <c r="H220" s="4"/>
       <c r="I220" s="4"/>
       <c r="J220" s="4"/>
-      <c r="K220" s="4"/>
-      <c r="L220" s="4"/>
-      <c r="M220" s="4"/>
-      <c r="N220" s="4"/>
-      <c r="O220" s="4"/>
-    </row>
-    <row r="221" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="221" spans="1:10" ht="12.75" customHeight="1">
       <c r="A221" s="5">
         <v>42826</v>
       </c>
       <c r="B221" s="8">
         <v>834</v>
       </c>
-      <c r="C221" s="26"/>
+      <c r="C221" s="20"/>
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
       <c r="F221" s="4"/>
@@ -5303,20 +4163,15 @@
       <c r="H221" s="4"/>
       <c r="I221" s="4"/>
       <c r="J221" s="4"/>
-      <c r="K221" s="4"/>
-      <c r="L221" s="4"/>
-      <c r="M221" s="4"/>
-      <c r="N221" s="4"/>
-      <c r="O221" s="4"/>
-    </row>
-    <row r="222" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="222" spans="1:10" ht="12.75" customHeight="1">
       <c r="A222" s="5">
         <v>42856</v>
       </c>
       <c r="B222" s="8">
         <v>901</v>
       </c>
-      <c r="C222" s="26"/>
+      <c r="C222" s="20"/>
       <c r="D222" s="4"/>
       <c r="E222" s="4"/>
       <c r="F222" s="4"/>
@@ -5324,20 +4179,15 @@
       <c r="H222" s="4"/>
       <c r="I222" s="4"/>
       <c r="J222" s="4"/>
-      <c r="K222" s="4"/>
-      <c r="L222" s="4"/>
-      <c r="M222" s="4"/>
-      <c r="N222" s="4"/>
-      <c r="O222" s="4"/>
-    </row>
-    <row r="223" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="223" spans="1:10" ht="12.75" customHeight="1">
       <c r="A223" s="5">
         <v>42887</v>
       </c>
       <c r="B223" s="8">
         <v>1049</v>
       </c>
-      <c r="C223" s="26"/>
+      <c r="C223" s="20"/>
       <c r="D223" s="4"/>
       <c r="E223" s="4"/>
       <c r="F223" s="4"/>
@@ -5345,20 +4195,15 @@
       <c r="H223" s="4"/>
       <c r="I223" s="4"/>
       <c r="J223" s="4"/>
-      <c r="K223" s="4"/>
-      <c r="L223" s="4"/>
-      <c r="M223" s="4"/>
-      <c r="N223" s="4"/>
-      <c r="O223" s="4"/>
-    </row>
-    <row r="224" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="224" spans="1:10" ht="12.75" customHeight="1">
       <c r="A224" s="5">
         <v>42917</v>
       </c>
       <c r="B224" s="8">
         <v>1373</v>
       </c>
-      <c r="C224" s="26"/>
+      <c r="C224" s="20"/>
       <c r="D224" s="4"/>
       <c r="E224" s="4"/>
       <c r="F224" s="4"/>
@@ -5366,20 +4211,15 @@
       <c r="H224" s="4"/>
       <c r="I224" s="4"/>
       <c r="J224" s="4"/>
-      <c r="K224" s="4"/>
-      <c r="L224" s="4"/>
-      <c r="M224" s="4"/>
-      <c r="N224" s="4"/>
-      <c r="O224" s="4"/>
-    </row>
-    <row r="225" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="225" spans="1:10" ht="12.75" customHeight="1">
       <c r="A225" s="5">
         <v>42948</v>
       </c>
       <c r="B225" s="8">
         <v>1294</v>
       </c>
-      <c r="C225" s="26"/>
+      <c r="C225" s="20"/>
       <c r="D225" s="4"/>
       <c r="E225" s="4"/>
       <c r="F225" s="4"/>
@@ -5387,20 +4227,15 @@
       <c r="H225" s="4"/>
       <c r="I225" s="4"/>
       <c r="J225" s="4"/>
-      <c r="K225" s="4"/>
-      <c r="L225" s="4"/>
-      <c r="M225" s="4"/>
-      <c r="N225" s="4"/>
-      <c r="O225" s="4"/>
-    </row>
-    <row r="226" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="226" spans="1:10" ht="12.75" customHeight="1">
       <c r="A226" s="5">
         <v>42979</v>
       </c>
       <c r="B226" s="8">
         <v>1228</v>
       </c>
-      <c r="C226" s="26"/>
+      <c r="C226" s="20"/>
       <c r="D226" s="4"/>
       <c r="E226" s="4"/>
       <c r="F226" s="4"/>
@@ -5408,20 +4243,15 @@
       <c r="H226" s="4"/>
       <c r="I226" s="4"/>
       <c r="J226" s="4"/>
-      <c r="K226" s="4"/>
-      <c r="L226" s="4"/>
-      <c r="M226" s="4"/>
-      <c r="N226" s="4"/>
-      <c r="O226" s="4"/>
-    </row>
-    <row r="227" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="227" spans="1:10" ht="12.75" customHeight="1">
       <c r="A227" s="5">
         <v>43009</v>
       </c>
       <c r="B227" s="8">
         <v>1073</v>
       </c>
-      <c r="C227" s="26"/>
+      <c r="C227" s="20"/>
       <c r="D227" s="4"/>
       <c r="E227" s="4"/>
       <c r="F227" s="4"/>
@@ -5429,20 +4259,15 @@
       <c r="H227" s="4"/>
       <c r="I227" s="4"/>
       <c r="J227" s="4"/>
-      <c r="K227" s="4"/>
-      <c r="L227" s="4"/>
-      <c r="M227" s="4"/>
-      <c r="N227" s="4"/>
-      <c r="O227" s="4"/>
-    </row>
-    <row r="228" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="228" spans="1:10" ht="12.75" customHeight="1">
       <c r="A228" s="5">
         <v>43040</v>
       </c>
       <c r="B228" s="8">
         <v>1304</v>
       </c>
-      <c r="C228" s="26"/>
+      <c r="C228" s="20"/>
       <c r="D228" s="4"/>
       <c r="E228" s="4"/>
       <c r="F228" s="4"/>
@@ -5450,20 +4275,15 @@
       <c r="H228" s="4"/>
       <c r="I228" s="4"/>
       <c r="J228" s="4"/>
-      <c r="K228" s="4"/>
-      <c r="L228" s="4"/>
-      <c r="M228" s="4"/>
-      <c r="N228" s="4"/>
-      <c r="O228" s="4"/>
-    </row>
-    <row r="229" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A229" s="16">
+    </row>
+    <row r="229" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A229" s="10">
         <v>43070</v>
       </c>
-      <c r="B229" s="17">
+      <c r="B229" s="11">
         <v>1550</v>
       </c>
-      <c r="C229" s="27"/>
+      <c r="C229" s="21"/>
       <c r="D229" s="4"/>
       <c r="E229" s="4"/>
       <c r="F229" s="4"/>
@@ -5471,20 +4291,15 @@
       <c r="H229" s="4"/>
       <c r="I229" s="4"/>
       <c r="J229" s="4"/>
-      <c r="K229" s="4"/>
-      <c r="L229" s="4"/>
-      <c r="M229" s="4"/>
-      <c r="N229" s="4"/>
-      <c r="O229" s="4"/>
-    </row>
-    <row r="230" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="230" spans="1:10" ht="12.75" customHeight="1">
       <c r="A230" s="5">
         <v>43101</v>
       </c>
       <c r="B230" s="8">
         <v>1131</v>
       </c>
-      <c r="C230" s="26"/>
+      <c r="C230" s="20"/>
       <c r="D230" s="4"/>
       <c r="E230" s="4"/>
       <c r="F230" s="4"/>
@@ -5492,20 +4307,15 @@
       <c r="H230" s="4"/>
       <c r="I230" s="4"/>
       <c r="J230" s="4"/>
-      <c r="K230" s="4"/>
-      <c r="L230" s="4"/>
-      <c r="M230" s="4"/>
-      <c r="N230" s="4"/>
-      <c r="O230" s="4"/>
-    </row>
-    <row r="231" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="231" spans="1:10" ht="12.75" customHeight="1">
       <c r="A231" s="5">
         <v>43132</v>
       </c>
       <c r="B231" s="8">
         <v>1212</v>
       </c>
-      <c r="C231" s="26"/>
+      <c r="C231" s="20"/>
       <c r="D231" s="4"/>
       <c r="E231" s="4"/>
       <c r="F231" s="4"/>
@@ -5513,20 +4323,15 @@
       <c r="H231" s="4"/>
       <c r="I231" s="4"/>
       <c r="J231" s="4"/>
-      <c r="K231" s="4"/>
-      <c r="L231" s="4"/>
-      <c r="M231" s="4"/>
-      <c r="N231" s="4"/>
-      <c r="O231" s="4"/>
-    </row>
-    <row r="232" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="232" spans="1:10" ht="12.75" customHeight="1">
       <c r="A232" s="5">
         <v>43160</v>
       </c>
       <c r="B232" s="8">
         <v>1037</v>
       </c>
-      <c r="C232" s="26"/>
+      <c r="C232" s="20"/>
       <c r="D232" s="4"/>
       <c r="E232" s="4"/>
       <c r="F232" s="4"/>
@@ -5534,20 +4339,15 @@
       <c r="H232" s="4"/>
       <c r="I232" s="4"/>
       <c r="J232" s="4"/>
-      <c r="K232" s="4"/>
-      <c r="L232" s="4"/>
-      <c r="M232" s="4"/>
-      <c r="N232" s="4"/>
-      <c r="O232" s="4"/>
-    </row>
-    <row r="233" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="233" spans="1:10" ht="12.75" customHeight="1">
       <c r="A233" s="5">
         <v>43191</v>
       </c>
       <c r="B233" s="8">
         <v>874</v>
       </c>
-      <c r="C233" s="26"/>
+      <c r="C233" s="20"/>
       <c r="D233" s="4"/>
       <c r="E233" s="4"/>
       <c r="F233" s="4"/>
@@ -5555,20 +4355,15 @@
       <c r="H233" s="4"/>
       <c r="I233" s="4"/>
       <c r="J233" s="4"/>
-      <c r="K233" s="4"/>
-      <c r="L233" s="4"/>
-      <c r="M233" s="4"/>
-      <c r="N233" s="4"/>
-      <c r="O233" s="4"/>
-    </row>
-    <row r="234" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="234" spans="1:10" ht="12.75" customHeight="1">
       <c r="A234" s="5">
         <v>43221</v>
       </c>
       <c r="B234" s="8">
         <v>1188</v>
       </c>
-      <c r="C234" s="26"/>
+      <c r="C234" s="20"/>
       <c r="D234" s="4"/>
       <c r="E234" s="4"/>
       <c r="F234" s="4"/>
@@ -5576,20 +4371,15 @@
       <c r="H234" s="4"/>
       <c r="I234" s="4"/>
       <c r="J234" s="4"/>
-      <c r="K234" s="4"/>
-      <c r="L234" s="4"/>
-      <c r="M234" s="4"/>
-      <c r="N234" s="4"/>
-      <c r="O234" s="4"/>
-    </row>
-    <row r="235" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="235" spans="1:10" ht="12.75" customHeight="1">
       <c r="A235" s="5">
         <v>43252</v>
       </c>
       <c r="B235" s="8">
         <v>1087</v>
       </c>
-      <c r="C235" s="26"/>
+      <c r="C235" s="20"/>
       <c r="D235" s="4"/>
       <c r="E235" s="4"/>
       <c r="F235" s="4"/>
@@ -5597,20 +4387,15 @@
       <c r="H235" s="4"/>
       <c r="I235" s="4"/>
       <c r="J235" s="4"/>
-      <c r="K235" s="4"/>
-      <c r="L235" s="4"/>
-      <c r="M235" s="4"/>
-      <c r="N235" s="4"/>
-      <c r="O235" s="4"/>
-    </row>
-    <row r="236" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="236" spans="1:10" ht="12.75" customHeight="1">
       <c r="A236" s="5">
         <v>43282</v>
       </c>
       <c r="B236" s="8">
         <v>1051</v>
       </c>
-      <c r="C236" s="26"/>
+      <c r="C236" s="20"/>
       <c r="D236" s="4"/>
       <c r="E236" s="4"/>
       <c r="F236" s="4"/>
@@ -5618,20 +4403,15 @@
       <c r="H236" s="4"/>
       <c r="I236" s="4"/>
       <c r="J236" s="4"/>
-      <c r="K236" s="4"/>
-      <c r="L236" s="4"/>
-      <c r="M236" s="4"/>
-      <c r="N236" s="4"/>
-      <c r="O236" s="4"/>
-    </row>
-    <row r="237" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="237" spans="1:10" ht="12.75" customHeight="1">
       <c r="A237" s="5">
         <v>43313</v>
       </c>
       <c r="B237" s="8">
         <v>1258</v>
       </c>
-      <c r="C237" s="26"/>
+      <c r="C237" s="20"/>
       <c r="D237" s="4"/>
       <c r="E237" s="4"/>
       <c r="F237" s="4"/>
@@ -5639,20 +4419,15 @@
       <c r="H237" s="4"/>
       <c r="I237" s="4"/>
       <c r="J237" s="4"/>
-      <c r="K237" s="4"/>
-      <c r="L237" s="4"/>
-      <c r="M237" s="4"/>
-      <c r="N237" s="4"/>
-      <c r="O237" s="4"/>
-    </row>
-    <row r="238" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="238" spans="1:10" ht="12.75" customHeight="1">
       <c r="A238" s="5">
         <v>43344</v>
       </c>
       <c r="B238" s="8">
         <v>1050</v>
       </c>
-      <c r="C238" s="26"/>
+      <c r="C238" s="20"/>
       <c r="D238" s="4"/>
       <c r="E238" s="4"/>
       <c r="F238" s="4"/>
@@ -5660,20 +4435,15 @@
       <c r="H238" s="4"/>
       <c r="I238" s="4"/>
       <c r="J238" s="4"/>
-      <c r="K238" s="4"/>
-      <c r="L238" s="4"/>
-      <c r="M238" s="4"/>
-      <c r="N238" s="4"/>
-      <c r="O238" s="4"/>
-    </row>
-    <row r="239" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="239" spans="1:10" ht="12.75" customHeight="1">
       <c r="A239" s="5">
         <v>43374</v>
       </c>
       <c r="B239" s="8">
         <v>1086</v>
       </c>
-      <c r="C239" s="26"/>
+      <c r="C239" s="20"/>
       <c r="D239" s="4"/>
       <c r="E239" s="4"/>
       <c r="F239" s="4"/>
@@ -5681,20 +4451,15 @@
       <c r="H239" s="4"/>
       <c r="I239" s="4"/>
       <c r="J239" s="4"/>
-      <c r="K239" s="4"/>
-      <c r="L239" s="4"/>
-      <c r="M239" s="4"/>
-      <c r="N239" s="4"/>
-      <c r="O239" s="4"/>
-    </row>
-    <row r="240" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="240" spans="1:10" ht="12.75" customHeight="1">
       <c r="A240" s="5">
         <v>43405</v>
       </c>
       <c r="B240" s="8">
         <v>1300</v>
       </c>
-      <c r="C240" s="26"/>
+      <c r="C240" s="20"/>
       <c r="D240" s="4"/>
       <c r="E240" s="4"/>
       <c r="F240" s="4"/>
@@ -5702,20 +4467,15 @@
       <c r="H240" s="4"/>
       <c r="I240" s="4"/>
       <c r="J240" s="4"/>
-      <c r="K240" s="4"/>
-      <c r="L240" s="4"/>
-      <c r="M240" s="4"/>
-      <c r="N240" s="4"/>
-      <c r="O240" s="4"/>
-    </row>
-    <row r="241" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
+    </row>
+    <row r="241" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
       <c r="A241" s="5">
         <v>43435</v>
       </c>
       <c r="B241" s="8">
         <v>1283</v>
       </c>
-      <c r="C241" s="26"/>
+      <c r="C241" s="20"/>
       <c r="D241" s="4"/>
       <c r="E241" s="4"/>
       <c r="F241" s="4"/>
@@ -5723,20 +4483,15 @@
       <c r="H241" s="4"/>
       <c r="I241" s="4"/>
       <c r="J241" s="4"/>
-      <c r="K241" s="4"/>
-      <c r="L241" s="4"/>
-      <c r="M241" s="4"/>
-      <c r="N241" s="4"/>
-      <c r="O241" s="4"/>
-    </row>
-    <row r="242" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A242" s="19">
+    </row>
+    <row r="242" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A242" s="13">
         <v>43466</v>
       </c>
-      <c r="B242" s="28">
+      <c r="B242" s="22">
         <v>1296</v>
       </c>
-      <c r="C242" s="29"/>
+      <c r="C242" s="23"/>
       <c r="D242" s="4"/>
       <c r="E242" s="4"/>
       <c r="F242" s="4"/>
@@ -5744,20 +4499,15 @@
       <c r="H242" s="4"/>
       <c r="I242" s="4"/>
       <c r="J242" s="4"/>
-      <c r="K242" s="4"/>
-      <c r="L242" s="4"/>
-      <c r="M242" s="4"/>
-      <c r="N242" s="4"/>
-      <c r="O242" s="4"/>
-    </row>
-    <row r="243" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="243" spans="1:10" ht="12.75" customHeight="1">
       <c r="A243" s="5">
         <v>43497</v>
       </c>
-      <c r="B243" s="30">
+      <c r="B243" s="24">
         <v>1106</v>
       </c>
-      <c r="C243" s="26"/>
+      <c r="C243" s="20"/>
       <c r="D243" s="4"/>
       <c r="E243" s="4"/>
       <c r="F243" s="4"/>
@@ -5765,20 +4515,15 @@
       <c r="H243" s="4"/>
       <c r="I243" s="4"/>
       <c r="J243" s="4"/>
-      <c r="K243" s="4"/>
-      <c r="L243" s="4"/>
-      <c r="M243" s="4"/>
-      <c r="N243" s="4"/>
-      <c r="O243" s="4"/>
-    </row>
-    <row r="244" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="244" spans="1:10" ht="12.75" customHeight="1">
       <c r="A244" s="5">
         <v>43525</v>
       </c>
-      <c r="B244" s="30">
+      <c r="B244" s="24">
         <v>914</v>
       </c>
-      <c r="C244" s="26"/>
+      <c r="C244" s="20"/>
       <c r="D244" s="4"/>
       <c r="E244" s="4"/>
       <c r="F244" s="4"/>
@@ -5786,20 +4531,15 @@
       <c r="H244" s="4"/>
       <c r="I244" s="4"/>
       <c r="J244" s="4"/>
-      <c r="K244" s="4"/>
-      <c r="L244" s="4"/>
-      <c r="M244" s="4"/>
-      <c r="N244" s="4"/>
-      <c r="O244" s="4"/>
-    </row>
-    <row r="245" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="245" spans="1:10" ht="12.75" customHeight="1">
       <c r="A245" s="5">
         <v>43556</v>
       </c>
-      <c r="B245" s="30">
+      <c r="B245" s="24">
         <v>1031</v>
       </c>
-      <c r="C245" s="26"/>
+      <c r="C245" s="20"/>
       <c r="D245" s="4"/>
       <c r="E245" s="4"/>
       <c r="F245" s="4"/>
@@ -5807,20 +4547,15 @@
       <c r="H245" s="4"/>
       <c r="I245" s="4"/>
       <c r="J245" s="4"/>
-      <c r="K245" s="4"/>
-      <c r="L245" s="4"/>
-      <c r="M245" s="4"/>
-      <c r="N245" s="4"/>
-      <c r="O245" s="4"/>
-    </row>
-    <row r="246" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="246" spans="1:10" ht="12.75" customHeight="1">
       <c r="A246" s="5">
         <v>43586</v>
       </c>
-      <c r="B246" s="30">
+      <c r="B246" s="24">
         <v>1115</v>
       </c>
-      <c r="C246" s="26"/>
+      <c r="C246" s="20"/>
       <c r="D246" s="4"/>
       <c r="E246" s="4"/>
       <c r="F246" s="4"/>
@@ -5828,20 +4563,15 @@
       <c r="H246" s="4"/>
       <c r="I246" s="4"/>
       <c r="J246" s="4"/>
-      <c r="K246" s="4"/>
-      <c r="L246" s="4"/>
-      <c r="M246" s="4"/>
-      <c r="N246" s="4"/>
-      <c r="O246" s="4"/>
-    </row>
-    <row r="247" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="247" spans="1:10" ht="12.75" customHeight="1">
       <c r="A247" s="5">
         <v>43617</v>
       </c>
-      <c r="B247" s="30">
+      <c r="B247" s="24">
         <v>1211</v>
       </c>
-      <c r="C247" s="26"/>
+      <c r="C247" s="20"/>
       <c r="D247" s="4"/>
       <c r="E247" s="4"/>
       <c r="F247" s="4"/>
@@ -5849,20 +4579,15 @@
       <c r="H247" s="4"/>
       <c r="I247" s="4"/>
       <c r="J247" s="4"/>
-      <c r="K247" s="4"/>
-      <c r="L247" s="4"/>
-      <c r="M247" s="4"/>
-      <c r="N247" s="4"/>
-      <c r="O247" s="4"/>
-    </row>
-    <row r="248" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="248" spans="1:10" ht="12.75" customHeight="1">
       <c r="A248" s="5">
         <v>43647</v>
       </c>
-      <c r="B248" s="30">
+      <c r="B248" s="24">
         <v>1317</v>
       </c>
-      <c r="C248" s="26"/>
+      <c r="C248" s="20"/>
       <c r="D248" s="4"/>
       <c r="E248" s="4"/>
       <c r="F248" s="4"/>
@@ -5870,20 +4595,15 @@
       <c r="H248" s="4"/>
       <c r="I248" s="4"/>
       <c r="J248" s="4"/>
-      <c r="K248" s="4"/>
-      <c r="L248" s="4"/>
-      <c r="M248" s="4"/>
-      <c r="N248" s="4"/>
-      <c r="O248" s="4"/>
-    </row>
-    <row r="249" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="249" spans="1:10" ht="12.75" customHeight="1">
       <c r="A249" s="5">
         <v>43678</v>
       </c>
-      <c r="B249" s="30">
+      <c r="B249" s="24">
         <v>1119</v>
       </c>
-      <c r="C249" s="26"/>
+      <c r="C249" s="20"/>
       <c r="D249" s="4"/>
       <c r="E249" s="4"/>
       <c r="F249" s="4"/>
@@ -5891,20 +4611,15 @@
       <c r="H249" s="4"/>
       <c r="I249" s="4"/>
       <c r="J249" s="4"/>
-      <c r="K249" s="4"/>
-      <c r="L249" s="4"/>
-      <c r="M249" s="4"/>
-      <c r="N249" s="4"/>
-      <c r="O249" s="4"/>
-    </row>
-    <row r="250" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="250" spans="1:10" ht="12.75" customHeight="1">
       <c r="A250" s="5">
         <v>43709</v>
       </c>
-      <c r="B250" s="30">
+      <c r="B250" s="24">
         <v>1088</v>
       </c>
-      <c r="C250" s="26"/>
+      <c r="C250" s="20"/>
       <c r="D250" s="4"/>
       <c r="E250" s="4"/>
       <c r="F250" s="4"/>
@@ -5912,20 +4627,15 @@
       <c r="H250" s="4"/>
       <c r="I250" s="4"/>
       <c r="J250" s="4"/>
-      <c r="K250" s="4"/>
-      <c r="L250" s="4"/>
-      <c r="M250" s="4"/>
-      <c r="N250" s="4"/>
-      <c r="O250" s="4"/>
-    </row>
-    <row r="251" spans="1:15" ht="12.75" customHeight="1">
+    </row>
+    <row r="251" spans="1:10" ht="12.75" customHeight="1">
       <c r="A251" s="5">
         <v>43739</v>
       </c>
       <c r="B251" s="8">
         <v>1369</v>
       </c>
-      <c r="C251" s="26"/>
+      <c r="C251" s="20"/>
       <c r="D251" s="4"/>
       <c r="E251" s="4"/>
       <c r="F251" s="4"/>
@@ -5933,20 +4643,15 @@
       <c r="H251" s="4"/>
       <c r="I251" s="4"/>
       <c r="J251" s="4"/>
-      <c r="K251" s="4"/>
-      <c r="L251" s="4"/>
-      <c r="M251" s="4"/>
-      <c r="N251" s="4"/>
-      <c r="O251" s="4"/>
-    </row>
-    <row r="252" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A252" s="16">
+    </row>
+    <row r="252" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A252" s="10">
         <v>43770</v>
       </c>
-      <c r="B252" s="17">
+      <c r="B252" s="11">
         <v>1506</v>
       </c>
-      <c r="C252" s="27"/>
+      <c r="C252" s="21"/>
       <c r="D252" s="4"/>
       <c r="E252" s="4"/>
       <c r="F252" s="4"/>
@@ -5954,14 +4659,9 @@
       <c r="H252" s="4"/>
       <c r="I252" s="4"/>
       <c r="J252" s="4"/>
-      <c r="K252" s="4"/>
-      <c r="L252" s="4"/>
-      <c r="M252" s="4"/>
-      <c r="N252" s="4"/>
-      <c r="O252" s="4"/>
-    </row>
-    <row r="253" spans="1:15" ht="15" customHeight="1"/>
-    <row r="254" spans="1:15" ht="15" customHeight="1"/>
+    </row>
+    <row r="253" spans="1:10" ht="15" customHeight="1"/>
+    <row r="254" spans="1:10" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:C1"/>
